--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_11_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_11_9.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-74917.82369398739</v>
+        <v>-39668.52419059024</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28766108.31770371</v>
+        <v>27364420.5524611</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3071739.344076563</v>
+        <v>3689998.964873976</v>
       </c>
     </row>
     <row r="11">
@@ -23270,49 +23272,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>422.0568960504156</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H11" t="n">
-        <v>348.3932585555301</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I11" t="n">
-        <v>248.5166188045319</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J11" t="n">
-        <v>134.6405481907202</v>
+        <v>105.186778144686</v>
       </c>
       <c r="K11" t="n">
-        <v>126.8366505493073</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L11" t="n">
-        <v>102.8381142892153</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M11" t="n">
-        <v>67.64282070579191</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N11" t="n">
-        <v>61.92149897629116</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>78.17053334824146</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P11" t="n">
-        <v>117.6841293060643</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q11" t="n">
-        <v>159.5401647781143</v>
+        <v>122.064787408095</v>
       </c>
       <c r="R11" t="n">
-        <v>218.9760896158517</v>
+        <v>197.1769422628221</v>
       </c>
       <c r="S11" t="n">
-        <v>232.4490946716583</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T11" t="n">
-        <v>218.802265886147</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23349,22 +23351,22 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>160.948794407391</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H12" t="n">
-        <v>137.1112742977616</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I12" t="n">
-        <v>117.3052016571149</v>
+        <v>110.912353612084</v>
       </c>
       <c r="J12" t="n">
-        <v>107.9900802178551</v>
+        <v>90.44761655696213</v>
       </c>
       <c r="K12" t="n">
-        <v>69.11625642831203</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L12" t="n">
-        <v>24.50430953720269</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -23373,25 +23375,25 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>13.35262508576585</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>39.2768703153011</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q12" t="n">
-        <v>99.99981508242075</v>
+        <v>76.29822915852546</v>
       </c>
       <c r="R12" t="n">
-        <v>162.1194176251468</v>
+        <v>150.5911173798657</v>
       </c>
       <c r="S12" t="n">
-        <v>206.7933815687133</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T12" t="n">
-        <v>229.8285755535207</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U12" t="n">
-        <v>249.64520105408</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23428,49 +23430,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G13" t="n">
-        <v>169.1789052395657</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H13" t="n">
-        <v>167.0843907444132</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I13" t="n">
-        <v>166.0672124249817</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J13" t="n">
-        <v>137.103552888073</v>
+        <v>126.0979749407038</v>
       </c>
       <c r="K13" t="n">
-        <v>108.7723790343128</v>
+        <v>90.68683368682949</v>
       </c>
       <c r="L13" t="n">
-        <v>95.01217681172437</v>
+        <v>71.8689054022766</v>
       </c>
       <c r="M13" t="n">
-        <v>95.36364612318764</v>
+        <v>70.962311348019</v>
       </c>
       <c r="N13" t="n">
-        <v>81.48840304191189</v>
+        <v>57.66727746803184</v>
       </c>
       <c r="O13" t="n">
-        <v>105.2757017540986</v>
+        <v>83.27303672572057</v>
       </c>
       <c r="P13" t="n">
-        <v>118.2412798751314</v>
+        <v>99.41419886551341</v>
       </c>
       <c r="Q13" t="n">
-        <v>163.9824415504889</v>
+        <v>150.9475465430031</v>
       </c>
       <c r="R13" t="n">
-        <v>218.5590438132605</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S13" t="n">
-        <v>242.7252062786279</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T13" t="n">
-        <v>217.8496038232412</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U13" t="n">
-        <v>291.2165540145173</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23507,49 +23509,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>422.0568960504156</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H14" t="n">
-        <v>348.3932585555301</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I14" t="n">
-        <v>248.5166188045319</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J14" t="n">
-        <v>134.6405481907202</v>
+        <v>105.186778144686</v>
       </c>
       <c r="K14" t="n">
-        <v>126.8366505493073</v>
+        <v>82.69308435253603</v>
       </c>
       <c r="L14" t="n">
-        <v>102.8381142892153</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M14" t="n">
-        <v>67.64282070579191</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N14" t="n">
-        <v>61.92149897629116</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>78.17053334824146</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P14" t="n">
-        <v>117.6841293060643</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q14" t="n">
-        <v>159.5401647781143</v>
+        <v>122.064787408095</v>
       </c>
       <c r="R14" t="n">
-        <v>218.9760896158517</v>
+        <v>197.1769422628221</v>
       </c>
       <c r="S14" t="n">
-        <v>232.4490946716583</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T14" t="n">
-        <v>218.802265886147</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23586,22 +23588,22 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>160.948794407391</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H15" t="n">
-        <v>137.1112742977616</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I15" t="n">
-        <v>117.3052016571149</v>
+        <v>110.912353612084</v>
       </c>
       <c r="J15" t="n">
-        <v>107.9900802178551</v>
+        <v>90.44761655696213</v>
       </c>
       <c r="K15" t="n">
-        <v>69.11625642831203</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L15" t="n">
-        <v>24.50430953720269</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -23610,25 +23612,25 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>13.35262508576585</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39.2768703153011</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q15" t="n">
-        <v>99.99981508242075</v>
+        <v>76.29822915852546</v>
       </c>
       <c r="R15" t="n">
-        <v>162.1194176251468</v>
+        <v>150.5911173798657</v>
       </c>
       <c r="S15" t="n">
-        <v>206.7933815687133</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T15" t="n">
-        <v>229.8285755535207</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U15" t="n">
-        <v>249.64520105408</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
@@ -23665,49 +23667,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G16" t="n">
-        <v>169.1789052395657</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H16" t="n">
-        <v>167.0843907444132</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I16" t="n">
-        <v>166.0672124249817</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J16" t="n">
-        <v>137.103552888073</v>
+        <v>126.0979749407038</v>
       </c>
       <c r="K16" t="n">
-        <v>108.7723790343128</v>
+        <v>90.6868336868295</v>
       </c>
       <c r="L16" t="n">
-        <v>95.01217681172437</v>
+        <v>71.86890540227661</v>
       </c>
       <c r="M16" t="n">
-        <v>95.36364612318764</v>
+        <v>70.962311348019</v>
       </c>
       <c r="N16" t="n">
-        <v>81.48840304191189</v>
+        <v>57.66727746803184</v>
       </c>
       <c r="O16" t="n">
-        <v>105.2757017540986</v>
+        <v>83.27303672572057</v>
       </c>
       <c r="P16" t="n">
-        <v>118.2412798751314</v>
+        <v>99.41419886551341</v>
       </c>
       <c r="Q16" t="n">
-        <v>163.9824415504889</v>
+        <v>150.9475465430031</v>
       </c>
       <c r="R16" t="n">
-        <v>218.5590438132605</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S16" t="n">
-        <v>242.7252062786279</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T16" t="n">
-        <v>217.8496038232412</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U16" t="n">
-        <v>291.2165540145173</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V16" t="n">
         <v>237.3615500762718</v>
@@ -23744,49 +23746,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>422.0568960504157</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H17" t="n">
-        <v>348.3932585555301</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I17" t="n">
-        <v>248.5166188045319</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J17" t="n">
-        <v>134.6405481907202</v>
+        <v>105.186778144686</v>
       </c>
       <c r="K17" t="n">
-        <v>126.8366505493073</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L17" t="n">
-        <v>102.8381142892153</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M17" t="n">
-        <v>67.64282070579191</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N17" t="n">
-        <v>61.92149897629116</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>78.17053334824146</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P17" t="n">
-        <v>117.6841293060644</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q17" t="n">
-        <v>159.5401647781143</v>
+        <v>122.064787408095</v>
       </c>
       <c r="R17" t="n">
-        <v>218.9760896158517</v>
+        <v>197.1769422628221</v>
       </c>
       <c r="S17" t="n">
-        <v>232.4490946716583</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T17" t="n">
-        <v>218.802265886147</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23823,22 +23825,22 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>160.948794407391</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H18" t="n">
-        <v>137.1112742977616</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I18" t="n">
-        <v>117.3052016571149</v>
+        <v>110.912353612084</v>
       </c>
       <c r="J18" t="n">
-        <v>107.9900802178551</v>
+        <v>90.44761655696213</v>
       </c>
       <c r="K18" t="n">
-        <v>69.11625642831203</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L18" t="n">
-        <v>24.50430953720272</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -23847,25 +23849,25 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>13.35262508576585</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>39.27687031530112</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q18" t="n">
-        <v>99.99981508242075</v>
+        <v>76.29822915852546</v>
       </c>
       <c r="R18" t="n">
-        <v>162.1194176251468</v>
+        <v>150.5911173798657</v>
       </c>
       <c r="S18" t="n">
-        <v>206.7933815687133</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T18" t="n">
-        <v>229.8285755535207</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U18" t="n">
-        <v>249.64520105408</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23902,49 +23904,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>169.1789052395657</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H19" t="n">
-        <v>167.0843907444132</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I19" t="n">
-        <v>166.0672124249817</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J19" t="n">
-        <v>137.103552888073</v>
+        <v>126.0979749407038</v>
       </c>
       <c r="K19" t="n">
-        <v>108.7723790343128</v>
+        <v>90.68683368682949</v>
       </c>
       <c r="L19" t="n">
-        <v>95.01217681172437</v>
+        <v>71.8689054022766</v>
       </c>
       <c r="M19" t="n">
-        <v>95.36364612318765</v>
+        <v>70.962311348019</v>
       </c>
       <c r="N19" t="n">
-        <v>81.48840304191191</v>
+        <v>57.66727746803184</v>
       </c>
       <c r="O19" t="n">
-        <v>105.2757017540986</v>
+        <v>83.27303672572057</v>
       </c>
       <c r="P19" t="n">
-        <v>118.2412798751314</v>
+        <v>99.41419886551341</v>
       </c>
       <c r="Q19" t="n">
-        <v>163.9824415504889</v>
+        <v>150.9475465430031</v>
       </c>
       <c r="R19" t="n">
-        <v>218.5590438132605</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S19" t="n">
-        <v>242.7252062786279</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T19" t="n">
-        <v>217.8496038232412</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U19" t="n">
-        <v>291.2165540145173</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23981,49 +23983,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>422.0568960504156</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H20" t="n">
-        <v>348.3932585555301</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I20" t="n">
-        <v>248.5166188045319</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J20" t="n">
-        <v>134.6405481907202</v>
+        <v>105.186778144686</v>
       </c>
       <c r="K20" t="n">
-        <v>126.8366505493073</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L20" t="n">
-        <v>102.8381142892153</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M20" t="n">
-        <v>67.64282070579191</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N20" t="n">
-        <v>61.92149897629116</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>78.17053334824146</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P20" t="n">
-        <v>117.6841293060643</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q20" t="n">
-        <v>159.5401647781143</v>
+        <v>122.064787408095</v>
       </c>
       <c r="R20" t="n">
-        <v>218.9760896158517</v>
+        <v>197.1769422628221</v>
       </c>
       <c r="S20" t="n">
-        <v>232.4490946716583</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T20" t="n">
-        <v>218.802265886147</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U20" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24060,22 +24062,22 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>160.948794407391</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H21" t="n">
-        <v>137.1112742977616</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I21" t="n">
-        <v>117.3052016571149</v>
+        <v>110.912353612084</v>
       </c>
       <c r="J21" t="n">
-        <v>107.9900802178551</v>
+        <v>90.44761655696213</v>
       </c>
       <c r="K21" t="n">
-        <v>69.11625642831203</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L21" t="n">
-        <v>24.50430953720269</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -24084,25 +24086,25 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>13.35262508576585</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>39.2768703153011</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.99981508242075</v>
+        <v>76.29822915852546</v>
       </c>
       <c r="R21" t="n">
-        <v>162.1194176251468</v>
+        <v>150.5911173798657</v>
       </c>
       <c r="S21" t="n">
-        <v>206.7933815687133</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T21" t="n">
-        <v>229.8285755535207</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U21" t="n">
-        <v>249.64520105408</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
@@ -24139,49 +24141,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>169.1789052395657</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H22" t="n">
-        <v>167.0843907444132</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I22" t="n">
-        <v>166.0672124249817</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J22" t="n">
-        <v>137.103552888073</v>
+        <v>126.0979749407038</v>
       </c>
       <c r="K22" t="n">
-        <v>108.7723790343128</v>
+        <v>90.68683368682949</v>
       </c>
       <c r="L22" t="n">
-        <v>95.01217681172437</v>
+        <v>71.8689054022766</v>
       </c>
       <c r="M22" t="n">
-        <v>95.36364612318764</v>
+        <v>70.962311348019</v>
       </c>
       <c r="N22" t="n">
-        <v>81.48840304191189</v>
+        <v>57.66727746803184</v>
       </c>
       <c r="O22" t="n">
-        <v>105.2757017540986</v>
+        <v>83.27303672572057</v>
       </c>
       <c r="P22" t="n">
-        <v>118.2412798751314</v>
+        <v>99.41419886551341</v>
       </c>
       <c r="Q22" t="n">
-        <v>163.9824415504889</v>
+        <v>150.9475465430031</v>
       </c>
       <c r="R22" t="n">
-        <v>218.5590438132605</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S22" t="n">
-        <v>242.7252062786279</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T22" t="n">
-        <v>217.8496038232412</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U22" t="n">
-        <v>291.2165540145173</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V22" t="n">
         <v>237.3615500762718</v>
@@ -24218,49 +24220,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>422.0568960504156</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H23" t="n">
-        <v>348.3932585555301</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I23" t="n">
-        <v>248.5166188045319</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J23" t="n">
-        <v>134.6405481907202</v>
+        <v>105.186778144686</v>
       </c>
       <c r="K23" t="n">
-        <v>126.8366505493073</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L23" t="n">
-        <v>102.8381142892153</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M23" t="n">
-        <v>67.64282070579191</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N23" t="n">
-        <v>61.92149897629116</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>78.17053334824146</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P23" t="n">
-        <v>117.6841293060643</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q23" t="n">
-        <v>159.5401647781143</v>
+        <v>122.064787408095</v>
       </c>
       <c r="R23" t="n">
-        <v>218.9760896158517</v>
+        <v>197.1769422628221</v>
       </c>
       <c r="S23" t="n">
-        <v>232.4490946716583</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T23" t="n">
-        <v>218.802265886147</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24297,22 +24299,22 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>160.948794407391</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H24" t="n">
-        <v>137.1112742977616</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I24" t="n">
-        <v>117.3052016571149</v>
+        <v>110.912353612084</v>
       </c>
       <c r="J24" t="n">
-        <v>107.9900802178551</v>
+        <v>90.44761655696213</v>
       </c>
       <c r="K24" t="n">
-        <v>69.11625642831203</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L24" t="n">
-        <v>24.50430953720269</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -24321,25 +24323,25 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>13.35262508576585</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>39.2768703153011</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q24" t="n">
-        <v>99.99981508242075</v>
+        <v>76.29822915852546</v>
       </c>
       <c r="R24" t="n">
-        <v>162.1194176251468</v>
+        <v>150.5911173798657</v>
       </c>
       <c r="S24" t="n">
-        <v>206.7933815687133</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T24" t="n">
-        <v>229.8285755535207</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U24" t="n">
-        <v>249.64520105408</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
@@ -24376,49 +24378,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G25" t="n">
-        <v>169.1789052395657</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H25" t="n">
-        <v>167.0843907444132</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I25" t="n">
-        <v>166.0672124249817</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J25" t="n">
-        <v>137.103552888073</v>
+        <v>126.0979749407038</v>
       </c>
       <c r="K25" t="n">
-        <v>108.7723790343128</v>
+        <v>90.68683368682949</v>
       </c>
       <c r="L25" t="n">
-        <v>95.01217681172437</v>
+        <v>71.8689054022766</v>
       </c>
       <c r="M25" t="n">
-        <v>95.36364612318764</v>
+        <v>70.962311348019</v>
       </c>
       <c r="N25" t="n">
-        <v>81.48840304191189</v>
+        <v>57.66727746803184</v>
       </c>
       <c r="O25" t="n">
-        <v>105.2757017540986</v>
+        <v>83.27303672572057</v>
       </c>
       <c r="P25" t="n">
-        <v>118.2412798751314</v>
+        <v>99.41419886551341</v>
       </c>
       <c r="Q25" t="n">
-        <v>163.9824415504889</v>
+        <v>150.9475465430031</v>
       </c>
       <c r="R25" t="n">
-        <v>218.5590438132605</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S25" t="n">
-        <v>242.7252062786279</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T25" t="n">
-        <v>217.8496038232412</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U25" t="n">
-        <v>291.2165540145173</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24455,49 +24457,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>422.0568960504156</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H26" t="n">
-        <v>348.3932585555301</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I26" t="n">
-        <v>248.5166188045319</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J26" t="n">
-        <v>134.6405481907202</v>
+        <v>105.186778144686</v>
       </c>
       <c r="K26" t="n">
-        <v>126.8366505493073</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L26" t="n">
-        <v>102.8381142892153</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M26" t="n">
-        <v>67.64282070579191</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N26" t="n">
-        <v>61.92149897629116</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>78.17053334824146</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P26" t="n">
-        <v>117.6841293060643</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q26" t="n">
-        <v>159.5401647781143</v>
+        <v>122.064787408095</v>
       </c>
       <c r="R26" t="n">
-        <v>218.9760896158517</v>
+        <v>197.1769422628221</v>
       </c>
       <c r="S26" t="n">
-        <v>232.4490946716583</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T26" t="n">
-        <v>218.802265886147</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U26" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24534,22 +24536,22 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>160.948794407391</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H27" t="n">
-        <v>137.1112742977616</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I27" t="n">
-        <v>117.3052016571149</v>
+        <v>110.912353612084</v>
       </c>
       <c r="J27" t="n">
-        <v>107.9900802178551</v>
+        <v>90.44761655696213</v>
       </c>
       <c r="K27" t="n">
-        <v>69.11625642831203</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L27" t="n">
-        <v>24.50430953720269</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -24558,25 +24560,25 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>13.35262508576585</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>39.2768703153011</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q27" t="n">
-        <v>99.99981508242075</v>
+        <v>76.29822915852546</v>
       </c>
       <c r="R27" t="n">
-        <v>162.1194176251468</v>
+        <v>150.5911173798657</v>
       </c>
       <c r="S27" t="n">
-        <v>206.7933815687133</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T27" t="n">
-        <v>229.8285755535207</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U27" t="n">
-        <v>249.64520105408</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V27" t="n">
         <v>249.2999251801724</v>
@@ -24613,49 +24615,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>169.1789052395657</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H28" t="n">
-        <v>167.0843907444132</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I28" t="n">
-        <v>166.0672124249817</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J28" t="n">
-        <v>137.103552888073</v>
+        <v>126.0979749407038</v>
       </c>
       <c r="K28" t="n">
-        <v>108.7723790343128</v>
+        <v>90.68683368682949</v>
       </c>
       <c r="L28" t="n">
-        <v>95.01217681172437</v>
+        <v>71.8689054022766</v>
       </c>
       <c r="M28" t="n">
-        <v>95.36364612318764</v>
+        <v>70.962311348019</v>
       </c>
       <c r="N28" t="n">
-        <v>81.48840304191189</v>
+        <v>57.66727746803184</v>
       </c>
       <c r="O28" t="n">
-        <v>105.2757017540986</v>
+        <v>83.27303672572057</v>
       </c>
       <c r="P28" t="n">
-        <v>118.2412798751314</v>
+        <v>99.41419886551341</v>
       </c>
       <c r="Q28" t="n">
-        <v>163.9824415504889</v>
+        <v>150.9475465430031</v>
       </c>
       <c r="R28" t="n">
-        <v>218.5590438132605</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S28" t="n">
-        <v>242.7252062786279</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T28" t="n">
-        <v>217.8496038232412</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U28" t="n">
-        <v>291.2165540145173</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V28" t="n">
         <v>237.3615500762718</v>
@@ -24692,49 +24694,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>422.0568960504156</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H29" t="n">
-        <v>348.3932585555301</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I29" t="n">
-        <v>248.5166188045319</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J29" t="n">
-        <v>134.6405481907202</v>
+        <v>105.186778144686</v>
       </c>
       <c r="K29" t="n">
-        <v>126.8366505493073</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L29" t="n">
-        <v>102.8381142892153</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M29" t="n">
-        <v>67.64282070579191</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N29" t="n">
-        <v>61.92149897629116</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>78.17053334824146</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P29" t="n">
-        <v>117.6841293060643</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q29" t="n">
-        <v>159.5401647781143</v>
+        <v>122.064787408095</v>
       </c>
       <c r="R29" t="n">
-        <v>218.9760896158517</v>
+        <v>197.1769422628221</v>
       </c>
       <c r="S29" t="n">
-        <v>232.4490946716583</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T29" t="n">
-        <v>218.802265886147</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
@@ -24771,22 +24773,22 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>160.948794407391</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H30" t="n">
-        <v>137.1112742977616</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I30" t="n">
-        <v>117.3052016571149</v>
+        <v>110.912353612084</v>
       </c>
       <c r="J30" t="n">
-        <v>107.9900802178551</v>
+        <v>90.44761655696213</v>
       </c>
       <c r="K30" t="n">
-        <v>69.11625642831203</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L30" t="n">
-        <v>24.50430953720269</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -24795,25 +24797,25 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>13.35262508576585</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>39.2768703153011</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q30" t="n">
-        <v>99.99981508242075</v>
+        <v>76.29822915852546</v>
       </c>
       <c r="R30" t="n">
-        <v>162.1194176251468</v>
+        <v>150.5911173798657</v>
       </c>
       <c r="S30" t="n">
-        <v>206.7933815687133</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T30" t="n">
-        <v>229.8285755535207</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U30" t="n">
-        <v>249.64520105408</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V30" t="n">
         <v>249.2999251801724</v>
@@ -24850,49 +24852,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>169.1789052395657</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H31" t="n">
-        <v>167.0843907444132</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I31" t="n">
-        <v>166.0672124249817</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J31" t="n">
-        <v>137.103552888073</v>
+        <v>126.0979749407038</v>
       </c>
       <c r="K31" t="n">
-        <v>108.7723790343128</v>
+        <v>90.68683368682949</v>
       </c>
       <c r="L31" t="n">
-        <v>95.01217681172437</v>
+        <v>71.8689054022766</v>
       </c>
       <c r="M31" t="n">
-        <v>95.36364612318764</v>
+        <v>70.962311348019</v>
       </c>
       <c r="N31" t="n">
-        <v>81.48840304191189</v>
+        <v>57.66727746803184</v>
       </c>
       <c r="O31" t="n">
-        <v>105.2757017540986</v>
+        <v>83.27303672572057</v>
       </c>
       <c r="P31" t="n">
-        <v>118.2412798751314</v>
+        <v>99.41419886551341</v>
       </c>
       <c r="Q31" t="n">
-        <v>163.9824415504889</v>
+        <v>150.9475465430031</v>
       </c>
       <c r="R31" t="n">
-        <v>218.5590438132605</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S31" t="n">
-        <v>242.7252062786279</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T31" t="n">
-        <v>217.8496038232412</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U31" t="n">
-        <v>291.2165540145173</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V31" t="n">
         <v>237.3615500762718</v>
@@ -24929,49 +24931,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>422.0568960504156</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H32" t="n">
-        <v>348.3932585555301</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I32" t="n">
-        <v>248.5166188045319</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J32" t="n">
-        <v>134.6405481907202</v>
+        <v>105.186778144686</v>
       </c>
       <c r="K32" t="n">
-        <v>126.8366505493073</v>
+        <v>82.69308435253603</v>
       </c>
       <c r="L32" t="n">
-        <v>102.8381142892153</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M32" t="n">
-        <v>67.64282070579191</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N32" t="n">
-        <v>61.92149897629116</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>78.17053334824146</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P32" t="n">
-        <v>117.6841293060643</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q32" t="n">
-        <v>159.5401647781143</v>
+        <v>122.064787408095</v>
       </c>
       <c r="R32" t="n">
-        <v>218.9760896158517</v>
+        <v>197.1769422628221</v>
       </c>
       <c r="S32" t="n">
-        <v>232.4490946716583</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T32" t="n">
-        <v>218.802265886147</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -25008,22 +25010,22 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>160.948794407391</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H33" t="n">
-        <v>137.1112742977616</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I33" t="n">
-        <v>117.3052016571149</v>
+        <v>110.912353612084</v>
       </c>
       <c r="J33" t="n">
-        <v>107.9900802178551</v>
+        <v>90.44761655696213</v>
       </c>
       <c r="K33" t="n">
-        <v>69.11625642831203</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L33" t="n">
-        <v>24.50430953720269</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -25032,25 +25034,25 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>13.35262508576585</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>39.2768703153011</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q33" t="n">
-        <v>99.99981508242075</v>
+        <v>76.29822915852546</v>
       </c>
       <c r="R33" t="n">
-        <v>162.1194176251468</v>
+        <v>150.5911173798657</v>
       </c>
       <c r="S33" t="n">
-        <v>206.7933815687133</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T33" t="n">
-        <v>229.8285755535207</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U33" t="n">
-        <v>249.64520105408</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25087,49 +25089,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>169.1789052395657</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H34" t="n">
-        <v>167.0843907444132</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I34" t="n">
-        <v>166.0672124249817</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J34" t="n">
-        <v>137.103552888073</v>
+        <v>126.0979749407038</v>
       </c>
       <c r="K34" t="n">
-        <v>108.7723790343128</v>
+        <v>90.6868336868295</v>
       </c>
       <c r="L34" t="n">
-        <v>95.01217681172437</v>
+        <v>71.86890540227661</v>
       </c>
       <c r="M34" t="n">
-        <v>95.36364612318764</v>
+        <v>70.962311348019</v>
       </c>
       <c r="N34" t="n">
-        <v>81.48840304191189</v>
+        <v>57.66727746803184</v>
       </c>
       <c r="O34" t="n">
-        <v>105.2757017540986</v>
+        <v>83.27303672572057</v>
       </c>
       <c r="P34" t="n">
-        <v>118.2412798751314</v>
+        <v>99.41419886551341</v>
       </c>
       <c r="Q34" t="n">
-        <v>163.9824415504889</v>
+        <v>150.9475465430031</v>
       </c>
       <c r="R34" t="n">
-        <v>218.5590438132605</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S34" t="n">
-        <v>242.7252062786279</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T34" t="n">
-        <v>217.8496038232412</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U34" t="n">
-        <v>291.2165540145173</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V34" t="n">
         <v>237.3615500762718</v>
@@ -25166,49 +25168,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>422.0568960504156</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H35" t="n">
-        <v>348.3932585555301</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I35" t="n">
-        <v>248.5166188045319</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J35" t="n">
-        <v>134.6405481907202</v>
+        <v>105.186778144686</v>
       </c>
       <c r="K35" t="n">
-        <v>126.8366505493073</v>
+        <v>82.69308435253603</v>
       </c>
       <c r="L35" t="n">
-        <v>102.8381142892153</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M35" t="n">
-        <v>67.64282070579191</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N35" t="n">
-        <v>61.92149897629116</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>78.17053334824146</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P35" t="n">
-        <v>117.6841293060643</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q35" t="n">
-        <v>159.5401647781143</v>
+        <v>122.064787408095</v>
       </c>
       <c r="R35" t="n">
-        <v>218.9760896158517</v>
+        <v>197.1769422628221</v>
       </c>
       <c r="S35" t="n">
-        <v>232.4490946716583</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T35" t="n">
-        <v>218.802265886147</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U35" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25245,22 +25247,22 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>160.948794407391</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H36" t="n">
-        <v>137.1112742977616</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I36" t="n">
-        <v>117.3052016571149</v>
+        <v>110.912353612084</v>
       </c>
       <c r="J36" t="n">
-        <v>107.9900802178551</v>
+        <v>90.44761655696213</v>
       </c>
       <c r="K36" t="n">
-        <v>69.11625642831203</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L36" t="n">
-        <v>24.50430953720269</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -25269,25 +25271,25 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>13.35262508576585</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>39.2768703153011</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q36" t="n">
-        <v>99.99981508242075</v>
+        <v>76.29822915852546</v>
       </c>
       <c r="R36" t="n">
-        <v>162.1194176251468</v>
+        <v>150.5911173798657</v>
       </c>
       <c r="S36" t="n">
-        <v>206.7933815687133</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T36" t="n">
-        <v>229.8285755535207</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U36" t="n">
-        <v>249.64520105408</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
@@ -25324,49 +25326,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G37" t="n">
-        <v>169.1789052395657</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H37" t="n">
-        <v>167.0843907444132</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I37" t="n">
-        <v>166.0672124249817</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J37" t="n">
-        <v>137.103552888073</v>
+        <v>126.0979749407038</v>
       </c>
       <c r="K37" t="n">
-        <v>108.7723790343128</v>
+        <v>90.6868336868295</v>
       </c>
       <c r="L37" t="n">
-        <v>95.01217681172437</v>
+        <v>71.86890540227661</v>
       </c>
       <c r="M37" t="n">
-        <v>95.36364612318764</v>
+        <v>70.962311348019</v>
       </c>
       <c r="N37" t="n">
-        <v>81.48840304191189</v>
+        <v>57.66727746803184</v>
       </c>
       <c r="O37" t="n">
-        <v>105.2757017540986</v>
+        <v>83.27303672572057</v>
       </c>
       <c r="P37" t="n">
-        <v>118.2412798751314</v>
+        <v>99.41419886551341</v>
       </c>
       <c r="Q37" t="n">
-        <v>163.9824415504889</v>
+        <v>150.9475465430031</v>
       </c>
       <c r="R37" t="n">
-        <v>218.5590438132605</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S37" t="n">
-        <v>242.7252062786279</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T37" t="n">
-        <v>217.8496038232412</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U37" t="n">
-        <v>291.2165540145173</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V37" t="n">
         <v>237.3615500762718</v>
@@ -25403,49 +25405,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>422.0568960504156</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H38" t="n">
-        <v>348.3932585555301</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I38" t="n">
-        <v>248.5166188045319</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J38" t="n">
-        <v>134.6405481907202</v>
+        <v>105.186778144686</v>
       </c>
       <c r="K38" t="n">
-        <v>126.8366505493073</v>
+        <v>82.69308435253603</v>
       </c>
       <c r="L38" t="n">
-        <v>102.8381142892153</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M38" t="n">
-        <v>67.64282070579191</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N38" t="n">
-        <v>61.92149897629116</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>78.17053334824146</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P38" t="n">
-        <v>117.6841293060643</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q38" t="n">
-        <v>159.5401647781143</v>
+        <v>122.064787408095</v>
       </c>
       <c r="R38" t="n">
-        <v>218.9760896158517</v>
+        <v>197.1769422628221</v>
       </c>
       <c r="S38" t="n">
-        <v>232.4490946716583</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T38" t="n">
-        <v>218.802265886147</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25482,22 +25484,22 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>160.948794407391</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H39" t="n">
-        <v>137.1112742977616</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I39" t="n">
-        <v>117.3052016571149</v>
+        <v>110.912353612084</v>
       </c>
       <c r="J39" t="n">
-        <v>107.9900802178551</v>
+        <v>90.44761655696213</v>
       </c>
       <c r="K39" t="n">
-        <v>69.11625642831203</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L39" t="n">
-        <v>24.50430953720269</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -25506,25 +25508,25 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>13.35262508576585</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>39.2768703153011</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q39" t="n">
-        <v>99.99981508242075</v>
+        <v>76.29822915852546</v>
       </c>
       <c r="R39" t="n">
-        <v>162.1194176251468</v>
+        <v>150.5911173798657</v>
       </c>
       <c r="S39" t="n">
-        <v>206.7933815687133</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T39" t="n">
-        <v>229.8285755535207</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U39" t="n">
-        <v>249.64520105408</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
@@ -25561,49 +25563,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G40" t="n">
-        <v>169.1789052395657</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H40" t="n">
-        <v>167.0843907444132</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I40" t="n">
-        <v>166.0672124249817</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J40" t="n">
-        <v>137.103552888073</v>
+        <v>126.0979749407038</v>
       </c>
       <c r="K40" t="n">
-        <v>108.7723790343128</v>
+        <v>90.6868336868295</v>
       </c>
       <c r="L40" t="n">
-        <v>95.01217681172437</v>
+        <v>71.86890540227661</v>
       </c>
       <c r="M40" t="n">
-        <v>95.36364612318764</v>
+        <v>70.962311348019</v>
       </c>
       <c r="N40" t="n">
-        <v>81.48840304191189</v>
+        <v>57.66727746803184</v>
       </c>
       <c r="O40" t="n">
-        <v>105.2757017540986</v>
+        <v>83.27303672572057</v>
       </c>
       <c r="P40" t="n">
-        <v>118.2412798751314</v>
+        <v>99.41419886551341</v>
       </c>
       <c r="Q40" t="n">
-        <v>163.9824415504889</v>
+        <v>150.9475465430031</v>
       </c>
       <c r="R40" t="n">
-        <v>218.5590438132605</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S40" t="n">
-        <v>242.7252062786279</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T40" t="n">
-        <v>217.8496038232412</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U40" t="n">
-        <v>291.2165540145173</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V40" t="n">
         <v>237.3615500762718</v>
@@ -25640,49 +25642,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>422.0568960504156</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H41" t="n">
-        <v>348.3932585555301</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I41" t="n">
-        <v>248.5166188045319</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J41" t="n">
-        <v>134.6405481907202</v>
+        <v>105.186778144686</v>
       </c>
       <c r="K41" t="n">
-        <v>126.8366505493073</v>
+        <v>82.69308435253603</v>
       </c>
       <c r="L41" t="n">
-        <v>102.8381142892153</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M41" t="n">
-        <v>67.64282070579191</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N41" t="n">
-        <v>61.92149897629116</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>78.17053334824146</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P41" t="n">
-        <v>117.6841293060643</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q41" t="n">
-        <v>159.5401647781143</v>
+        <v>122.064787408095</v>
       </c>
       <c r="R41" t="n">
-        <v>218.9760896158517</v>
+        <v>197.1769422628221</v>
       </c>
       <c r="S41" t="n">
-        <v>232.4490946716583</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T41" t="n">
-        <v>218.802265886147</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25719,22 +25721,22 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>160.948794407391</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H42" t="n">
-        <v>137.1112742977616</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I42" t="n">
-        <v>117.3052016571149</v>
+        <v>110.912353612084</v>
       </c>
       <c r="J42" t="n">
-        <v>107.9900802178551</v>
+        <v>90.44761655696213</v>
       </c>
       <c r="K42" t="n">
-        <v>69.11625642831203</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L42" t="n">
-        <v>24.50430953720269</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -25743,25 +25745,25 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>13.35262508576585</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>39.2768703153011</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q42" t="n">
-        <v>99.99981508242075</v>
+        <v>76.29822915852546</v>
       </c>
       <c r="R42" t="n">
-        <v>162.1194176251468</v>
+        <v>150.5911173798657</v>
       </c>
       <c r="S42" t="n">
-        <v>206.7933815687133</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T42" t="n">
-        <v>229.8285755535207</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U42" t="n">
-        <v>249.64520105408</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
@@ -25798,49 +25800,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>169.1789052395657</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H43" t="n">
-        <v>167.0843907444132</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I43" t="n">
-        <v>166.0672124249817</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J43" t="n">
-        <v>137.103552888073</v>
+        <v>126.0979749407038</v>
       </c>
       <c r="K43" t="n">
-        <v>108.7723790343128</v>
+        <v>90.6868336868295</v>
       </c>
       <c r="L43" t="n">
-        <v>95.01217681172437</v>
+        <v>71.86890540227661</v>
       </c>
       <c r="M43" t="n">
-        <v>95.36364612318764</v>
+        <v>70.962311348019</v>
       </c>
       <c r="N43" t="n">
-        <v>81.48840304191189</v>
+        <v>57.66727746803184</v>
       </c>
       <c r="O43" t="n">
-        <v>105.2757017540986</v>
+        <v>83.27303672572057</v>
       </c>
       <c r="P43" t="n">
-        <v>118.2412798751314</v>
+        <v>99.41419886551341</v>
       </c>
       <c r="Q43" t="n">
-        <v>163.9824415504889</v>
+        <v>150.9475465430031</v>
       </c>
       <c r="R43" t="n">
-        <v>218.5590438132605</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S43" t="n">
-        <v>242.7252062786279</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T43" t="n">
-        <v>217.8496038232412</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U43" t="n">
-        <v>291.2165540145173</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V43" t="n">
         <v>237.3615500762718</v>
@@ -25877,49 +25879,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>422.0568960504156</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H44" t="n">
-        <v>348.3932585555301</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I44" t="n">
-        <v>248.5166188045319</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J44" t="n">
-        <v>134.6405481907202</v>
+        <v>105.186778144686</v>
       </c>
       <c r="K44" t="n">
-        <v>126.8366505493073</v>
+        <v>82.69308435253603</v>
       </c>
       <c r="L44" t="n">
-        <v>102.8381142892153</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M44" t="n">
-        <v>67.64282070579191</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N44" t="n">
-        <v>61.92149897629116</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>78.17053334824146</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P44" t="n">
-        <v>117.6841293060643</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q44" t="n">
-        <v>159.5401647781143</v>
+        <v>122.064787408095</v>
       </c>
       <c r="R44" t="n">
-        <v>218.9760896158517</v>
+        <v>197.1769422628221</v>
       </c>
       <c r="S44" t="n">
-        <v>232.4490946716583</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T44" t="n">
-        <v>218.802265886147</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
@@ -25956,22 +25958,22 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>160.948794407391</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H45" t="n">
-        <v>137.1112742977616</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I45" t="n">
-        <v>117.3052016571149</v>
+        <v>110.912353612084</v>
       </c>
       <c r="J45" t="n">
-        <v>107.9900802178551</v>
+        <v>90.44761655696213</v>
       </c>
       <c r="K45" t="n">
-        <v>69.11625642831203</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L45" t="n">
-        <v>24.50430953720269</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -25980,25 +25982,25 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>13.35262508576585</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>39.2768703153011</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q45" t="n">
-        <v>99.99981508242075</v>
+        <v>76.29822915852546</v>
       </c>
       <c r="R45" t="n">
-        <v>162.1194176251468</v>
+        <v>150.5911173798657</v>
       </c>
       <c r="S45" t="n">
-        <v>206.7933815687133</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T45" t="n">
-        <v>229.8285755535207</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U45" t="n">
-        <v>249.64520105408</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
@@ -26035,49 +26037,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G46" t="n">
-        <v>169.1789052395657</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H46" t="n">
-        <v>167.0843907444132</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I46" t="n">
-        <v>166.0672124249817</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J46" t="n">
-        <v>137.103552888073</v>
+        <v>126.0979749407038</v>
       </c>
       <c r="K46" t="n">
-        <v>108.7723790343128</v>
+        <v>90.6868336868295</v>
       </c>
       <c r="L46" t="n">
-        <v>95.01217681172437</v>
+        <v>71.86890540227661</v>
       </c>
       <c r="M46" t="n">
-        <v>95.36364612318764</v>
+        <v>70.962311348019</v>
       </c>
       <c r="N46" t="n">
-        <v>81.48840304191189</v>
+        <v>57.66727746803184</v>
       </c>
       <c r="O46" t="n">
-        <v>105.2757017540986</v>
+        <v>83.27303672572057</v>
       </c>
       <c r="P46" t="n">
-        <v>118.2412798751314</v>
+        <v>99.41419886551341</v>
       </c>
       <c r="Q46" t="n">
-        <v>163.9824415504889</v>
+        <v>150.9475465430031</v>
       </c>
       <c r="R46" t="n">
-        <v>218.5590438132605</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S46" t="n">
-        <v>242.7252062786279</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T46" t="n">
-        <v>217.8496038232412</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U46" t="n">
-        <v>291.2165540145173</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V46" t="n">
         <v>237.3615500762718</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>354008.2219211868</v>
+        <v>425260.6833210184</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>354008.2219211868</v>
+        <v>425260.6833210184</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>354008.2219211868</v>
+        <v>425260.6833210184</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>354008.2219211868</v>
+        <v>425260.6833210184</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>354008.2219211868</v>
+        <v>425260.6833210184</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>354008.2219211868</v>
+        <v>425260.6833210184</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>354008.2219211868</v>
+        <v>425260.6833210184</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>354008.2219211868</v>
+        <v>425260.6833210184</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>354008.2219211868</v>
+        <v>425260.6833210184</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>354008.2219211868</v>
+        <v>425260.6833210184</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>354008.2219211868</v>
+        <v>425260.6833210184</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>354008.2219211868</v>
+        <v>425260.6833210184</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>52230.72126706033</v>
+        <v>62743.37950637972</v>
       </c>
       <c r="F2" t="n">
-        <v>52230.72126706033</v>
+        <v>62743.37950637972</v>
       </c>
       <c r="G2" t="n">
-        <v>52230.72126706032</v>
+        <v>62743.37950637972</v>
       </c>
       <c r="H2" t="n">
-        <v>52230.72126706033</v>
+        <v>62743.37950637972</v>
       </c>
       <c r="I2" t="n">
-        <v>52230.72126706033</v>
+        <v>62743.37950637972</v>
       </c>
       <c r="J2" t="n">
-        <v>52230.72126706033</v>
+        <v>62743.37950637972</v>
       </c>
       <c r="K2" t="n">
-        <v>52230.72126706033</v>
+        <v>62743.37950637972</v>
       </c>
       <c r="L2" t="n">
-        <v>52230.72126706033</v>
+        <v>62743.37950637972</v>
       </c>
       <c r="M2" t="n">
-        <v>52230.72126706033</v>
+        <v>62743.37950637972</v>
       </c>
       <c r="N2" t="n">
-        <v>52230.72126706033</v>
+        <v>62743.37950637972</v>
       </c>
       <c r="O2" t="n">
-        <v>52230.72126706033</v>
+        <v>62743.37950637972</v>
       </c>
       <c r="P2" t="n">
-        <v>52230.72126706033</v>
+        <v>62743.37950637972</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>306429.7335513992</v>
+        <v>375782.5398672876</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>8314.840984438075</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="F5" t="n">
-        <v>8314.840984438075</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="G5" t="n">
-        <v>8314.840984438075</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="H5" t="n">
-        <v>8314.840984438075</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="I5" t="n">
-        <v>8314.840984438075</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="J5" t="n">
-        <v>8314.840984438075</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="K5" t="n">
-        <v>8314.840984438075</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="L5" t="n">
-        <v>8314.840984438075</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="M5" t="n">
-        <v>8314.840984438075</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="N5" t="n">
-        <v>8314.840984438075</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="O5" t="n">
-        <v>8314.840984438075</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="P5" t="n">
-        <v>8314.840984438075</v>
+        <v>10196.69999876384</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-262513.853268777</v>
+        <v>-323235.8603596717</v>
       </c>
       <c r="F6" t="n">
-        <v>43915.88028262225</v>
+        <v>52546.67950761587</v>
       </c>
       <c r="G6" t="n">
-        <v>43915.88028262225</v>
+        <v>52546.67950761587</v>
       </c>
       <c r="H6" t="n">
-        <v>43915.88028262225</v>
+        <v>52546.67950761587</v>
       </c>
       <c r="I6" t="n">
-        <v>43915.88028262225</v>
+        <v>52546.67950761587</v>
       </c>
       <c r="J6" t="n">
-        <v>43915.88028262225</v>
+        <v>52546.67950761587</v>
       </c>
       <c r="K6" t="n">
-        <v>43915.88028262225</v>
+        <v>52546.67950761587</v>
       </c>
       <c r="L6" t="n">
-        <v>43915.88028262225</v>
+        <v>52546.67950761587</v>
       </c>
       <c r="M6" t="n">
-        <v>43915.88028262225</v>
+        <v>52546.67950761587</v>
       </c>
       <c r="N6" t="n">
-        <v>43915.88028262225</v>
+        <v>52546.67950761587</v>
       </c>
       <c r="O6" t="n">
-        <v>43915.88028262225</v>
+        <v>52546.67950761587</v>
       </c>
       <c r="P6" t="n">
-        <v>43915.88028262225</v>
+        <v>52546.67950761587</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>381.4147240567924</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="F3" t="n">
-        <v>381.4147240567924</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="G3" t="n">
-        <v>381.4147240567924</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="H3" t="n">
-        <v>381.4147240567924</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="I3" t="n">
-        <v>381.4147240567924</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="J3" t="n">
-        <v>381.4147240567924</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="K3" t="n">
-        <v>381.4147240567924</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="L3" t="n">
-        <v>381.4147240567924</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="M3" t="n">
-        <v>381.4147240567924</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="N3" t="n">
-        <v>381.4147240567924</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="O3" t="n">
-        <v>381.4147240567924</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="P3" t="n">
-        <v>381.4147240567924</v>
+        <v>467.7385320533874</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>381.4147240567924</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.533325523846401</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H11" t="n">
-        <v>15.70317002109195</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I11" t="n">
-        <v>59.11353225808841</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J11" t="n">
-        <v>130.1390871795585</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K11" t="n">
-        <v>195.0447566039767</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L11" t="n">
-        <v>241.970267604391</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M11" t="n">
-        <v>269.2385453890944</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N11" t="n">
-        <v>273.5951065337231</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O11" t="n">
-        <v>258.3481008559754</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P11" t="n">
-        <v>220.4941269860174</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q11" t="n">
-        <v>165.5819066632681</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R11" t="n">
-        <v>96.31775943731654</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S11" t="n">
-        <v>34.94065537464989</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T11" t="n">
-        <v>6.712132480637622</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U11" t="n">
-        <v>0.122666041907712</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8204014819334781</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H12" t="n">
-        <v>7.923351154462802</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I12" t="n">
-        <v>28.2462790928851</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J12" t="n">
-        <v>77.50994878214497</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K12" t="n">
-        <v>132.476848071688</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L12" t="n">
-        <v>178.1314708908633</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M12" t="n">
         <v>207.8710246109518</v>
@@ -31853,25 +31855,25 @@
         <v>192.087253921875</v>
       </c>
       <c r="O12" t="n">
-        <v>195.1943824142341</v>
+        <v>208.5470075</v>
       </c>
       <c r="P12" t="n">
-        <v>156.6607005281569</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q12" t="n">
-        <v>104.7235295183857</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R12" t="n">
-        <v>50.93685692215053</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S12" t="n">
-        <v>15.23859770170297</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T12" t="n">
-        <v>3.306793692530114</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.687797043381101</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H13" t="n">
-        <v>6.11514098569743</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I13" t="n">
-        <v>20.68393290458803</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J13" t="n">
-        <v>48.62725096704384</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K13" t="n">
-        <v>79.90951104009517</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L13" t="n">
-        <v>102.2566622495866</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M13" t="n">
-        <v>107.8153129001848</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N13" t="n">
-        <v>105.2517057384917</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O13" t="n">
-        <v>97.21698573172148</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P13" t="n">
-        <v>83.18592604674694</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.59362333257565</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R13" t="n">
-        <v>30.92585615057204</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S13" t="n">
-        <v>11.98642665601427</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T13" t="n">
-        <v>2.938769185355612</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03751620236624192</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.533325523846401</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H14" t="n">
-        <v>15.70317002109195</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I14" t="n">
-        <v>59.11353225808841</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J14" t="n">
-        <v>130.1390871795585</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K14" t="n">
-        <v>195.0447566039767</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L14" t="n">
-        <v>241.970267604391</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M14" t="n">
-        <v>269.2385453890944</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N14" t="n">
-        <v>273.5951065337231</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O14" t="n">
-        <v>258.3481008559754</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P14" t="n">
-        <v>220.4941269860174</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q14" t="n">
-        <v>165.5819066632681</v>
+        <v>203.0572840332873</v>
       </c>
       <c r="R14" t="n">
-        <v>96.31775943731654</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S14" t="n">
-        <v>34.94065537464989</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T14" t="n">
-        <v>6.712132480637622</v>
+        <v>8.23125798618574</v>
       </c>
       <c r="U14" t="n">
-        <v>0.122666041907712</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8204014819334781</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H15" t="n">
-        <v>7.923351154462802</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I15" t="n">
-        <v>28.2462790928851</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J15" t="n">
-        <v>77.50994878214497</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K15" t="n">
-        <v>132.476848071688</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L15" t="n">
-        <v>178.1314708908633</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M15" t="n">
         <v>207.8710246109518</v>
@@ -32090,25 +32092,25 @@
         <v>192.087253921875</v>
       </c>
       <c r="O15" t="n">
-        <v>195.1943824142341</v>
+        <v>208.5470075</v>
       </c>
       <c r="P15" t="n">
-        <v>156.6607005281569</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q15" t="n">
-        <v>104.7235295183857</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R15" t="n">
-        <v>50.93685692215053</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S15" t="n">
-        <v>15.23859770170297</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T15" t="n">
-        <v>3.306793692530114</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.06618941491321521</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.687797043381101</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H16" t="n">
-        <v>6.11514098569743</v>
+        <v>7.499152202429724</v>
       </c>
       <c r="I16" t="n">
-        <v>20.68393290458803</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J16" t="n">
-        <v>48.62725096704384</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K16" t="n">
-        <v>79.90951104009517</v>
+        <v>97.99505638757849</v>
       </c>
       <c r="L16" t="n">
-        <v>102.2566622495866</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M16" t="n">
-        <v>107.8153129001848</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N16" t="n">
-        <v>105.2517057384917</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O16" t="n">
-        <v>97.21698573172148</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P16" t="n">
-        <v>83.18592604674694</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.59362333257565</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R16" t="n">
-        <v>30.92585615057204</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S16" t="n">
-        <v>11.98642665601427</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T16" t="n">
-        <v>2.938769185355612</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03751620236624192</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.5333255238464</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H17" t="n">
-        <v>15.70317002109195</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I17" t="n">
-        <v>59.11353225808841</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J17" t="n">
-        <v>130.1390871795585</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K17" t="n">
-        <v>195.0447566039767</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L17" t="n">
-        <v>241.970267604391</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M17" t="n">
-        <v>269.2385453890944</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N17" t="n">
-        <v>273.5951065337231</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O17" t="n">
-        <v>258.3481008559754</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P17" t="n">
-        <v>220.4941269860173</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q17" t="n">
-        <v>165.5819066632681</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R17" t="n">
-        <v>96.31775943731652</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S17" t="n">
-        <v>34.94065537464989</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T17" t="n">
-        <v>6.712132480637621</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U17" t="n">
-        <v>0.122666041907712</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8204014819334779</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H18" t="n">
-        <v>7.923351154462802</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I18" t="n">
-        <v>28.2462790928851</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J18" t="n">
-        <v>77.50994878214496</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K18" t="n">
-        <v>132.476848071688</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L18" t="n">
-        <v>178.1314708908633</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M18" t="n">
         <v>207.8710246109518</v>
@@ -32327,25 +32329,25 @@
         <v>192.087253921875</v>
       </c>
       <c r="O18" t="n">
-        <v>195.1943824142341</v>
+        <v>208.5470075</v>
       </c>
       <c r="P18" t="n">
-        <v>156.6607005281569</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q18" t="n">
-        <v>104.7235295183857</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R18" t="n">
-        <v>50.93685692215052</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S18" t="n">
-        <v>15.23859770170297</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T18" t="n">
-        <v>3.306793692530114</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6877970433811009</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H19" t="n">
-        <v>6.115140985697429</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I19" t="n">
-        <v>20.68393290458802</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J19" t="n">
-        <v>48.62725096704384</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K19" t="n">
-        <v>79.90951104009515</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L19" t="n">
-        <v>102.2566622495866</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M19" t="n">
-        <v>107.8153129001847</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N19" t="n">
-        <v>105.2517057384916</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O19" t="n">
-        <v>97.21698573172148</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P19" t="n">
-        <v>83.18592604674694</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.59362333257565</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R19" t="n">
-        <v>30.92585615057204</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S19" t="n">
-        <v>11.98642665601427</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T19" t="n">
-        <v>2.938769185355612</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03751620236624191</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.533325523846401</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H20" t="n">
-        <v>15.70317002109195</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I20" t="n">
-        <v>59.11353225808841</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J20" t="n">
-        <v>130.1390871795585</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K20" t="n">
-        <v>195.0447566039767</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L20" t="n">
-        <v>241.970267604391</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M20" t="n">
-        <v>269.2385453890944</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N20" t="n">
-        <v>273.5951065337231</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O20" t="n">
-        <v>258.3481008559754</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P20" t="n">
-        <v>220.4941269860174</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q20" t="n">
-        <v>165.5819066632681</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R20" t="n">
-        <v>96.31775943731654</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S20" t="n">
-        <v>34.94065537464989</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T20" t="n">
-        <v>6.712132480637622</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U20" t="n">
-        <v>0.122666041907712</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8204014819334781</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H21" t="n">
-        <v>7.923351154462802</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I21" t="n">
-        <v>28.2462790928851</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J21" t="n">
-        <v>77.50994878214497</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K21" t="n">
-        <v>132.476848071688</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L21" t="n">
-        <v>178.1314708908633</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M21" t="n">
         <v>207.8710246109518</v>
@@ -32564,25 +32566,25 @@
         <v>192.087253921875</v>
       </c>
       <c r="O21" t="n">
-        <v>195.1943824142341</v>
+        <v>208.5470075</v>
       </c>
       <c r="P21" t="n">
-        <v>156.6607005281569</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q21" t="n">
-        <v>104.7235295183857</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R21" t="n">
-        <v>50.93685692215053</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S21" t="n">
-        <v>15.23859770170297</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T21" t="n">
-        <v>3.306793692530114</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.687797043381101</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H22" t="n">
-        <v>6.11514098569743</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I22" t="n">
-        <v>20.68393290458803</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J22" t="n">
-        <v>48.62725096704384</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K22" t="n">
-        <v>79.90951104009517</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L22" t="n">
-        <v>102.2566622495866</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M22" t="n">
-        <v>107.8153129001848</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N22" t="n">
-        <v>105.2517057384917</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O22" t="n">
-        <v>97.21698573172148</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P22" t="n">
-        <v>83.18592604674694</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.59362333257565</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R22" t="n">
-        <v>30.92585615057204</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S22" t="n">
-        <v>11.98642665601427</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T22" t="n">
-        <v>2.938769185355612</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03751620236624192</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.533325523846401</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H23" t="n">
-        <v>15.70317002109195</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I23" t="n">
-        <v>59.11353225808841</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J23" t="n">
-        <v>130.1390871795585</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K23" t="n">
-        <v>195.0447566039767</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L23" t="n">
-        <v>241.970267604391</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M23" t="n">
-        <v>269.2385453890944</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N23" t="n">
-        <v>273.5951065337231</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O23" t="n">
-        <v>258.3481008559754</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P23" t="n">
-        <v>220.4941269860174</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q23" t="n">
-        <v>165.5819066632681</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R23" t="n">
-        <v>96.31775943731654</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S23" t="n">
-        <v>34.94065537464989</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T23" t="n">
-        <v>6.712132480637622</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U23" t="n">
-        <v>0.122666041907712</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8204014819334781</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H24" t="n">
-        <v>7.923351154462802</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I24" t="n">
-        <v>28.2462790928851</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J24" t="n">
-        <v>77.50994878214497</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K24" t="n">
-        <v>132.476848071688</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L24" t="n">
-        <v>178.1314708908633</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M24" t="n">
         <v>207.8710246109518</v>
@@ -32801,25 +32803,25 @@
         <v>192.087253921875</v>
       </c>
       <c r="O24" t="n">
-        <v>195.1943824142341</v>
+        <v>208.5470075</v>
       </c>
       <c r="P24" t="n">
-        <v>156.6607005281569</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q24" t="n">
-        <v>104.7235295183857</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R24" t="n">
-        <v>50.93685692215053</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S24" t="n">
-        <v>15.23859770170297</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T24" t="n">
-        <v>3.306793692530114</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.687797043381101</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H25" t="n">
-        <v>6.11514098569743</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I25" t="n">
-        <v>20.68393290458803</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J25" t="n">
-        <v>48.62725096704384</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K25" t="n">
-        <v>79.90951104009517</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L25" t="n">
-        <v>102.2566622495866</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M25" t="n">
-        <v>107.8153129001848</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N25" t="n">
-        <v>105.2517057384917</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O25" t="n">
-        <v>97.21698573172148</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P25" t="n">
-        <v>83.18592604674694</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.59362333257565</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R25" t="n">
-        <v>30.92585615057204</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S25" t="n">
-        <v>11.98642665601427</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T25" t="n">
-        <v>2.938769185355612</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03751620236624192</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.533325523846401</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H26" t="n">
-        <v>15.70317002109195</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I26" t="n">
-        <v>59.11353225808841</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J26" t="n">
-        <v>130.1390871795585</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K26" t="n">
-        <v>195.0447566039767</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L26" t="n">
-        <v>241.970267604391</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M26" t="n">
-        <v>269.2385453890944</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N26" t="n">
-        <v>273.5951065337231</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O26" t="n">
-        <v>258.3481008559754</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P26" t="n">
-        <v>220.4941269860174</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q26" t="n">
-        <v>165.5819066632681</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R26" t="n">
-        <v>96.31775943731654</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S26" t="n">
-        <v>34.94065537464989</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T26" t="n">
-        <v>6.712132480637622</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U26" t="n">
-        <v>0.122666041907712</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8204014819334781</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H27" t="n">
-        <v>7.923351154462802</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I27" t="n">
-        <v>28.2462790928851</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J27" t="n">
-        <v>77.50994878214497</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K27" t="n">
-        <v>132.476848071688</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L27" t="n">
-        <v>178.1314708908633</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M27" t="n">
         <v>207.8710246109518</v>
@@ -33038,25 +33040,25 @@
         <v>192.087253921875</v>
       </c>
       <c r="O27" t="n">
-        <v>195.1943824142341</v>
+        <v>208.5470075</v>
       </c>
       <c r="P27" t="n">
-        <v>156.6607005281569</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q27" t="n">
-        <v>104.7235295183857</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R27" t="n">
-        <v>50.93685692215053</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S27" t="n">
-        <v>15.23859770170297</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T27" t="n">
-        <v>3.306793692530114</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.687797043381101</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H28" t="n">
-        <v>6.11514098569743</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I28" t="n">
-        <v>20.68393290458803</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J28" t="n">
-        <v>48.62725096704384</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K28" t="n">
-        <v>79.90951104009517</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L28" t="n">
-        <v>102.2566622495866</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M28" t="n">
-        <v>107.8153129001848</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N28" t="n">
-        <v>105.2517057384917</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O28" t="n">
-        <v>97.21698573172148</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P28" t="n">
-        <v>83.18592604674694</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.59362333257565</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R28" t="n">
-        <v>30.92585615057204</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S28" t="n">
-        <v>11.98642665601427</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T28" t="n">
-        <v>2.938769185355612</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03751620236624192</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.533325523846401</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H29" t="n">
-        <v>15.70317002109195</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I29" t="n">
-        <v>59.11353225808841</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J29" t="n">
-        <v>130.1390871795585</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K29" t="n">
-        <v>195.0447566039767</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L29" t="n">
-        <v>241.970267604391</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M29" t="n">
-        <v>269.2385453890944</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N29" t="n">
-        <v>273.5951065337231</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O29" t="n">
-        <v>258.3481008559754</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P29" t="n">
-        <v>220.4941269860174</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q29" t="n">
-        <v>165.5819066632681</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R29" t="n">
-        <v>96.31775943731654</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S29" t="n">
-        <v>34.94065537464989</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T29" t="n">
-        <v>6.712132480637622</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U29" t="n">
-        <v>0.122666041907712</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8204014819334781</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H30" t="n">
-        <v>7.923351154462802</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I30" t="n">
-        <v>28.2462790928851</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J30" t="n">
-        <v>77.50994878214497</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K30" t="n">
-        <v>132.476848071688</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L30" t="n">
-        <v>178.1314708908633</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M30" t="n">
         <v>207.8710246109518</v>
@@ -33275,25 +33277,25 @@
         <v>192.087253921875</v>
       </c>
       <c r="O30" t="n">
-        <v>195.1943824142341</v>
+        <v>208.5470075</v>
       </c>
       <c r="P30" t="n">
-        <v>156.6607005281569</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q30" t="n">
-        <v>104.7235295183857</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R30" t="n">
-        <v>50.93685692215053</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S30" t="n">
-        <v>15.23859770170297</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T30" t="n">
-        <v>3.306793692530114</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.687797043381101</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H31" t="n">
-        <v>6.11514098569743</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I31" t="n">
-        <v>20.68393290458803</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J31" t="n">
-        <v>48.62725096704384</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K31" t="n">
-        <v>79.90951104009517</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L31" t="n">
-        <v>102.2566622495866</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M31" t="n">
-        <v>107.8153129001848</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N31" t="n">
-        <v>105.2517057384917</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O31" t="n">
-        <v>97.21698573172148</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P31" t="n">
-        <v>83.18592604674694</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.59362333257565</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R31" t="n">
-        <v>30.92585615057204</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S31" t="n">
-        <v>11.98642665601427</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T31" t="n">
-        <v>2.938769185355612</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03751620236624192</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.533325523846401</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H32" t="n">
-        <v>15.70317002109195</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I32" t="n">
-        <v>59.11353225808841</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J32" t="n">
-        <v>130.1390871795585</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K32" t="n">
-        <v>195.0447566039767</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L32" t="n">
-        <v>241.970267604391</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M32" t="n">
-        <v>269.2385453890944</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N32" t="n">
-        <v>273.5951065337231</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O32" t="n">
-        <v>258.3481008559754</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P32" t="n">
-        <v>220.4941269860174</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q32" t="n">
-        <v>165.5819066632681</v>
+        <v>203.0572840332873</v>
       </c>
       <c r="R32" t="n">
-        <v>96.31775943731654</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S32" t="n">
-        <v>34.94065537464989</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T32" t="n">
-        <v>6.712132480637622</v>
+        <v>8.23125798618574</v>
       </c>
       <c r="U32" t="n">
-        <v>0.122666041907712</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8204014819334781</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H33" t="n">
-        <v>7.923351154462802</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I33" t="n">
-        <v>28.2462790928851</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J33" t="n">
-        <v>77.50994878214497</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K33" t="n">
-        <v>132.476848071688</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L33" t="n">
-        <v>178.1314708908633</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M33" t="n">
         <v>207.8710246109518</v>
@@ -33512,25 +33514,25 @@
         <v>192.087253921875</v>
       </c>
       <c r="O33" t="n">
-        <v>195.1943824142341</v>
+        <v>208.5470075</v>
       </c>
       <c r="P33" t="n">
-        <v>156.6607005281569</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q33" t="n">
-        <v>104.7235295183857</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R33" t="n">
-        <v>50.93685692215053</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S33" t="n">
-        <v>15.23859770170297</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T33" t="n">
-        <v>3.306793692530114</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.06618941491321521</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.687797043381101</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H34" t="n">
-        <v>6.11514098569743</v>
+        <v>7.499152202429724</v>
       </c>
       <c r="I34" t="n">
-        <v>20.68393290458803</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J34" t="n">
-        <v>48.62725096704384</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K34" t="n">
-        <v>79.90951104009517</v>
+        <v>97.99505638757849</v>
       </c>
       <c r="L34" t="n">
-        <v>102.2566622495866</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M34" t="n">
-        <v>107.8153129001848</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N34" t="n">
-        <v>105.2517057384917</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O34" t="n">
-        <v>97.21698573172148</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P34" t="n">
-        <v>83.18592604674694</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.59362333257565</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R34" t="n">
-        <v>30.92585615057204</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S34" t="n">
-        <v>11.98642665601427</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T34" t="n">
-        <v>2.938769185355612</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03751620236624192</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.533325523846401</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H35" t="n">
-        <v>15.70317002109195</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I35" t="n">
-        <v>59.11353225808841</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J35" t="n">
-        <v>130.1390871795585</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K35" t="n">
-        <v>195.0447566039767</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L35" t="n">
-        <v>241.970267604391</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M35" t="n">
-        <v>269.2385453890944</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N35" t="n">
-        <v>273.5951065337231</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O35" t="n">
-        <v>258.3481008559754</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P35" t="n">
-        <v>220.4941269860174</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q35" t="n">
-        <v>165.5819066632681</v>
+        <v>203.0572840332873</v>
       </c>
       <c r="R35" t="n">
-        <v>96.31775943731654</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S35" t="n">
-        <v>34.94065537464989</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T35" t="n">
-        <v>6.712132480637622</v>
+        <v>8.23125798618574</v>
       </c>
       <c r="U35" t="n">
-        <v>0.122666041907712</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8204014819334781</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H36" t="n">
-        <v>7.923351154462802</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I36" t="n">
-        <v>28.2462790928851</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J36" t="n">
-        <v>77.50994878214497</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K36" t="n">
-        <v>132.476848071688</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L36" t="n">
-        <v>178.1314708908633</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M36" t="n">
         <v>207.8710246109518</v>
@@ -33749,25 +33751,25 @@
         <v>192.087253921875</v>
       </c>
       <c r="O36" t="n">
-        <v>195.1943824142341</v>
+        <v>208.5470075</v>
       </c>
       <c r="P36" t="n">
-        <v>156.6607005281569</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q36" t="n">
-        <v>104.7235295183857</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R36" t="n">
-        <v>50.93685692215053</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S36" t="n">
-        <v>15.23859770170297</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T36" t="n">
-        <v>3.306793692530114</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.06618941491321521</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.687797043381101</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H37" t="n">
-        <v>6.11514098569743</v>
+        <v>7.499152202429724</v>
       </c>
       <c r="I37" t="n">
-        <v>20.68393290458803</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J37" t="n">
-        <v>48.62725096704384</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K37" t="n">
-        <v>79.90951104009517</v>
+        <v>97.99505638757849</v>
       </c>
       <c r="L37" t="n">
-        <v>102.2566622495866</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M37" t="n">
-        <v>107.8153129001848</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N37" t="n">
-        <v>105.2517057384917</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O37" t="n">
-        <v>97.21698573172148</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P37" t="n">
-        <v>83.18592604674694</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.59362333257565</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R37" t="n">
-        <v>30.92585615057204</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S37" t="n">
-        <v>11.98642665601427</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T37" t="n">
-        <v>2.938769185355612</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03751620236624192</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.533325523846401</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H38" t="n">
-        <v>15.70317002109195</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I38" t="n">
-        <v>59.11353225808841</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J38" t="n">
-        <v>130.1390871795585</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K38" t="n">
-        <v>195.0447566039767</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L38" t="n">
-        <v>241.970267604391</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M38" t="n">
-        <v>269.2385453890944</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N38" t="n">
-        <v>273.5951065337231</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O38" t="n">
-        <v>258.3481008559754</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P38" t="n">
-        <v>220.4941269860174</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q38" t="n">
-        <v>165.5819066632681</v>
+        <v>203.0572840332873</v>
       </c>
       <c r="R38" t="n">
-        <v>96.31775943731654</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S38" t="n">
-        <v>34.94065537464989</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T38" t="n">
-        <v>6.712132480637622</v>
+        <v>8.23125798618574</v>
       </c>
       <c r="U38" t="n">
-        <v>0.122666041907712</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8204014819334781</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H39" t="n">
-        <v>7.923351154462802</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I39" t="n">
-        <v>28.2462790928851</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J39" t="n">
-        <v>77.50994878214497</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K39" t="n">
-        <v>132.476848071688</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L39" t="n">
-        <v>178.1314708908633</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M39" t="n">
         <v>207.8710246109518</v>
@@ -33986,25 +33988,25 @@
         <v>192.087253921875</v>
       </c>
       <c r="O39" t="n">
-        <v>195.1943824142341</v>
+        <v>208.5470075</v>
       </c>
       <c r="P39" t="n">
-        <v>156.6607005281569</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q39" t="n">
-        <v>104.7235295183857</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R39" t="n">
-        <v>50.93685692215053</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S39" t="n">
-        <v>15.23859770170297</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T39" t="n">
-        <v>3.306793692530114</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.06618941491321521</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.687797043381101</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H40" t="n">
-        <v>6.11514098569743</v>
+        <v>7.499152202429724</v>
       </c>
       <c r="I40" t="n">
-        <v>20.68393290458803</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J40" t="n">
-        <v>48.62725096704384</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K40" t="n">
-        <v>79.90951104009517</v>
+        <v>97.99505638757849</v>
       </c>
       <c r="L40" t="n">
-        <v>102.2566622495866</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M40" t="n">
-        <v>107.8153129001848</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N40" t="n">
-        <v>105.2517057384917</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O40" t="n">
-        <v>97.21698573172148</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P40" t="n">
-        <v>83.18592604674694</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.59362333257565</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R40" t="n">
-        <v>30.92585615057204</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S40" t="n">
-        <v>11.98642665601427</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T40" t="n">
-        <v>2.938769185355612</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03751620236624192</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.533325523846401</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H41" t="n">
-        <v>15.70317002109195</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I41" t="n">
-        <v>59.11353225808841</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J41" t="n">
-        <v>130.1390871795585</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K41" t="n">
-        <v>195.0447566039767</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L41" t="n">
-        <v>241.970267604391</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M41" t="n">
-        <v>269.2385453890944</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N41" t="n">
-        <v>273.5951065337231</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O41" t="n">
-        <v>258.3481008559754</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P41" t="n">
-        <v>220.4941269860174</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q41" t="n">
-        <v>165.5819066632681</v>
+        <v>203.0572840332873</v>
       </c>
       <c r="R41" t="n">
-        <v>96.31775943731654</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S41" t="n">
-        <v>34.94065537464989</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T41" t="n">
-        <v>6.712132480637622</v>
+        <v>8.23125798618574</v>
       </c>
       <c r="U41" t="n">
-        <v>0.122666041907712</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8204014819334781</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H42" t="n">
-        <v>7.923351154462802</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I42" t="n">
-        <v>28.2462790928851</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J42" t="n">
-        <v>77.50994878214497</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K42" t="n">
-        <v>132.476848071688</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L42" t="n">
-        <v>178.1314708908633</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M42" t="n">
         <v>207.8710246109518</v>
@@ -34223,25 +34225,25 @@
         <v>192.087253921875</v>
       </c>
       <c r="O42" t="n">
-        <v>195.1943824142341</v>
+        <v>208.5470075</v>
       </c>
       <c r="P42" t="n">
-        <v>156.6607005281569</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q42" t="n">
-        <v>104.7235295183857</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R42" t="n">
-        <v>50.93685692215053</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S42" t="n">
-        <v>15.23859770170297</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T42" t="n">
-        <v>3.306793692530114</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.06618941491321521</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.687797043381101</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H43" t="n">
-        <v>6.11514098569743</v>
+        <v>7.499152202429724</v>
       </c>
       <c r="I43" t="n">
-        <v>20.68393290458803</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J43" t="n">
-        <v>48.62725096704384</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K43" t="n">
-        <v>79.90951104009517</v>
+        <v>97.99505638757849</v>
       </c>
       <c r="L43" t="n">
-        <v>102.2566622495866</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M43" t="n">
-        <v>107.8153129001848</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N43" t="n">
-        <v>105.2517057384917</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O43" t="n">
-        <v>97.21698573172148</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P43" t="n">
-        <v>83.18592604674694</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.59362333257565</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R43" t="n">
-        <v>30.92585615057204</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S43" t="n">
-        <v>11.98642665601427</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T43" t="n">
-        <v>2.938769185355612</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03751620236624192</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.533325523846401</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H44" t="n">
-        <v>15.70317002109195</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I44" t="n">
-        <v>59.11353225808841</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J44" t="n">
-        <v>130.1390871795585</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K44" t="n">
-        <v>195.0447566039767</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L44" t="n">
-        <v>241.970267604391</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M44" t="n">
-        <v>269.2385453890944</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N44" t="n">
-        <v>273.5951065337231</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O44" t="n">
-        <v>258.3481008559754</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P44" t="n">
-        <v>220.4941269860174</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q44" t="n">
-        <v>165.5819066632681</v>
+        <v>203.0572840332873</v>
       </c>
       <c r="R44" t="n">
-        <v>96.31775943731654</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S44" t="n">
-        <v>34.94065537464989</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T44" t="n">
-        <v>6.712132480637622</v>
+        <v>8.23125798618574</v>
       </c>
       <c r="U44" t="n">
-        <v>0.122666041907712</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8204014819334781</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H45" t="n">
-        <v>7.923351154462802</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I45" t="n">
-        <v>28.2462790928851</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J45" t="n">
-        <v>77.50994878214497</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K45" t="n">
-        <v>132.476848071688</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L45" t="n">
-        <v>178.1314708908633</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M45" t="n">
         <v>207.8710246109518</v>
@@ -34460,25 +34462,25 @@
         <v>192.087253921875</v>
       </c>
       <c r="O45" t="n">
-        <v>195.1943824142341</v>
+        <v>208.5470075</v>
       </c>
       <c r="P45" t="n">
-        <v>156.6607005281569</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q45" t="n">
-        <v>104.7235295183857</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R45" t="n">
-        <v>50.93685692215053</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S45" t="n">
-        <v>15.23859770170297</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T45" t="n">
-        <v>3.306793692530114</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.06618941491321521</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.687797043381101</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H46" t="n">
-        <v>6.11514098569743</v>
+        <v>7.499152202429724</v>
       </c>
       <c r="I46" t="n">
-        <v>20.68393290458803</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J46" t="n">
-        <v>48.62725096704384</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K46" t="n">
-        <v>79.90951104009517</v>
+        <v>97.99505638757849</v>
       </c>
       <c r="L46" t="n">
-        <v>102.2566622495866</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M46" t="n">
-        <v>107.8153129001848</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N46" t="n">
-        <v>105.2517057384917</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O46" t="n">
-        <v>97.21698573172148</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P46" t="n">
-        <v>83.18592604674694</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.59362333257565</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R46" t="n">
-        <v>30.92585615057204</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S46" t="n">
-        <v>11.98642665601427</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T46" t="n">
-        <v>2.938769185355612</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03751620236624192</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_11_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_11_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-39668.52419059024</v>
+        <v>-200365.5289386153</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27364420.5524611</v>
+        <v>27234504.23380113</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3689998.964873976</v>
+        <v>3747302.749569724</v>
       </c>
     </row>
     <row r="11">
@@ -23272,49 +23272,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H11" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I11" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J11" t="n">
-        <v>105.186778144686</v>
+        <v>102.012990463283</v>
       </c>
       <c r="K11" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769612</v>
       </c>
       <c r="L11" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521357</v>
       </c>
       <c r="M11" t="n">
-        <v>6.707321807773383</v>
+        <v>0.1412239717268449</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355858</v>
       </c>
       <c r="P11" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079667</v>
       </c>
       <c r="Q11" t="n">
-        <v>122.064787408095</v>
+        <v>118.0266323309351</v>
       </c>
       <c r="R11" t="n">
-        <v>197.1769422628221</v>
+        <v>194.8279775895052</v>
       </c>
       <c r="S11" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T11" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23351,19 +23351,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H12" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I12" t="n">
-        <v>110.912353612084</v>
+        <v>110.2234929893967</v>
       </c>
       <c r="J12" t="n">
-        <v>90.44761655696213</v>
+        <v>88.55733035654079</v>
       </c>
       <c r="K12" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246745</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23378,22 +23378,22 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>76.29822915852546</v>
+        <v>73.74426743079405</v>
       </c>
       <c r="R12" t="n">
-        <v>150.5911173798657</v>
+        <v>149.3488866824438</v>
       </c>
       <c r="S12" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T12" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U12" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23430,49 +23430,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G13" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H13" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I13" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J13" t="n">
-        <v>126.0979749407038</v>
+        <v>124.9120701257518</v>
       </c>
       <c r="K13" t="n">
-        <v>90.68683368682949</v>
+        <v>88.73802778029915</v>
       </c>
       <c r="L13" t="n">
-        <v>71.8689054022766</v>
+        <v>69.37510479230811</v>
       </c>
       <c r="M13" t="n">
-        <v>70.962311348019</v>
+        <v>68.33294826145385</v>
       </c>
       <c r="N13" t="n">
-        <v>57.66727746803184</v>
+        <v>55.10043475874974</v>
       </c>
       <c r="O13" t="n">
-        <v>83.27303672572057</v>
+        <v>80.90214202816706</v>
       </c>
       <c r="P13" t="n">
-        <v>99.41419886551341</v>
+        <v>97.38548886704082</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9475465430031</v>
+        <v>149.5429728962854</v>
       </c>
       <c r="R13" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S13" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T13" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575616</v>
       </c>
       <c r="U13" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23509,49 +23509,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H14" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I14" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J14" t="n">
-        <v>105.186778144686</v>
+        <v>102.012990463283</v>
       </c>
       <c r="K14" t="n">
-        <v>82.69308435253603</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L14" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M14" t="n">
-        <v>6.707321807773383</v>
+        <v>0.141223971726788</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355852</v>
       </c>
       <c r="P14" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q14" t="n">
-        <v>122.064787408095</v>
+        <v>118.026632330935</v>
       </c>
       <c r="R14" t="n">
-        <v>197.1769422628221</v>
+        <v>194.8279775895052</v>
       </c>
       <c r="S14" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T14" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23588,19 +23588,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H15" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I15" t="n">
-        <v>110.912353612084</v>
+        <v>110.2234929893967</v>
       </c>
       <c r="J15" t="n">
-        <v>90.44761655696213</v>
+        <v>88.55733035654077</v>
       </c>
       <c r="K15" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23615,22 +23615,22 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>76.29822915852546</v>
+        <v>73.74426743079403</v>
       </c>
       <c r="R15" t="n">
-        <v>150.5911173798657</v>
+        <v>149.3488866824438</v>
       </c>
       <c r="S15" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T15" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U15" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
@@ -23667,49 +23667,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G16" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H16" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I16" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J16" t="n">
-        <v>126.0979749407038</v>
+        <v>124.9120701257518</v>
       </c>
       <c r="K16" t="n">
-        <v>90.6868336868295</v>
+        <v>88.73802778029913</v>
       </c>
       <c r="L16" t="n">
-        <v>71.86890540227661</v>
+        <v>69.37510479230811</v>
       </c>
       <c r="M16" t="n">
-        <v>70.962311348019</v>
+        <v>68.33294826145382</v>
       </c>
       <c r="N16" t="n">
-        <v>57.66727746803184</v>
+        <v>55.10043475874971</v>
       </c>
       <c r="O16" t="n">
-        <v>83.27303672572057</v>
+        <v>80.90214202816705</v>
       </c>
       <c r="P16" t="n">
-        <v>99.41419886551341</v>
+        <v>97.38548886704081</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9475465430031</v>
+        <v>149.5429728962854</v>
       </c>
       <c r="R16" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S16" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T16" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U16" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V16" t="n">
         <v>237.3615500762718</v>
@@ -23746,49 +23746,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H17" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I17" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J17" t="n">
-        <v>105.186778144686</v>
+        <v>102.012990463283</v>
       </c>
       <c r="K17" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L17" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M17" t="n">
-        <v>6.707321807773383</v>
+        <v>0.141223971726788</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355852</v>
       </c>
       <c r="P17" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q17" t="n">
-        <v>122.064787408095</v>
+        <v>118.026632330935</v>
       </c>
       <c r="R17" t="n">
-        <v>197.1769422628221</v>
+        <v>194.8279775895052</v>
       </c>
       <c r="S17" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T17" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23825,19 +23825,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H18" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I18" t="n">
-        <v>110.912353612084</v>
+        <v>110.2234929893967</v>
       </c>
       <c r="J18" t="n">
-        <v>90.44761655696213</v>
+        <v>88.55733035654077</v>
       </c>
       <c r="K18" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23852,22 +23852,22 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>76.29822915852546</v>
+        <v>73.74426743079403</v>
       </c>
       <c r="R18" t="n">
-        <v>150.5911173798657</v>
+        <v>149.3488866824438</v>
       </c>
       <c r="S18" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T18" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U18" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23904,49 +23904,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H19" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I19" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J19" t="n">
-        <v>126.0979749407038</v>
+        <v>124.9120701257518</v>
       </c>
       <c r="K19" t="n">
-        <v>90.68683368682949</v>
+        <v>88.73802778029913</v>
       </c>
       <c r="L19" t="n">
-        <v>71.8689054022766</v>
+        <v>69.37510479230811</v>
       </c>
       <c r="M19" t="n">
-        <v>70.962311348019</v>
+        <v>68.33294826145382</v>
       </c>
       <c r="N19" t="n">
-        <v>57.66727746803184</v>
+        <v>55.10043475874971</v>
       </c>
       <c r="O19" t="n">
-        <v>83.27303672572057</v>
+        <v>80.90214202816705</v>
       </c>
       <c r="P19" t="n">
-        <v>99.41419886551341</v>
+        <v>97.38548886704081</v>
       </c>
       <c r="Q19" t="n">
-        <v>150.9475465430031</v>
+        <v>149.5429728962854</v>
       </c>
       <c r="R19" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S19" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T19" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U19" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23983,49 +23983,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H20" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I20" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J20" t="n">
-        <v>105.186778144686</v>
+        <v>102.012990463283</v>
       </c>
       <c r="K20" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L20" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M20" t="n">
-        <v>6.707321807773383</v>
+        <v>0.141223971726788</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355852</v>
       </c>
       <c r="P20" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q20" t="n">
-        <v>122.064787408095</v>
+        <v>118.026632330935</v>
       </c>
       <c r="R20" t="n">
-        <v>197.1769422628221</v>
+        <v>194.8279775895052</v>
       </c>
       <c r="S20" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T20" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U20" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24062,19 +24062,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H21" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I21" t="n">
-        <v>110.912353612084</v>
+        <v>110.2234929893967</v>
       </c>
       <c r="J21" t="n">
-        <v>90.44761655696213</v>
+        <v>88.55733035654077</v>
       </c>
       <c r="K21" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24089,22 +24089,22 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>76.29822915852546</v>
+        <v>73.74426743079403</v>
       </c>
       <c r="R21" t="n">
-        <v>150.5911173798657</v>
+        <v>149.3488866824438</v>
       </c>
       <c r="S21" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T21" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U21" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
@@ -24141,49 +24141,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H22" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I22" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J22" t="n">
-        <v>126.0979749407038</v>
+        <v>124.9120701257518</v>
       </c>
       <c r="K22" t="n">
-        <v>90.68683368682949</v>
+        <v>88.73802778029913</v>
       </c>
       <c r="L22" t="n">
-        <v>71.8689054022766</v>
+        <v>69.37510479230811</v>
       </c>
       <c r="M22" t="n">
-        <v>70.962311348019</v>
+        <v>68.33294826145382</v>
       </c>
       <c r="N22" t="n">
-        <v>57.66727746803184</v>
+        <v>55.10043475874971</v>
       </c>
       <c r="O22" t="n">
-        <v>83.27303672572057</v>
+        <v>80.90214202816705</v>
       </c>
       <c r="P22" t="n">
-        <v>99.41419886551341</v>
+        <v>97.38548886704081</v>
       </c>
       <c r="Q22" t="n">
-        <v>150.9475465430031</v>
+        <v>149.5429728962854</v>
       </c>
       <c r="R22" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S22" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T22" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U22" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V22" t="n">
         <v>237.3615500762718</v>
@@ -24220,49 +24220,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H23" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I23" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J23" t="n">
-        <v>105.186778144686</v>
+        <v>102.012990463283</v>
       </c>
       <c r="K23" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L23" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M23" t="n">
-        <v>6.707321807773383</v>
+        <v>0.141223971726788</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355852</v>
       </c>
       <c r="P23" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q23" t="n">
-        <v>122.064787408095</v>
+        <v>118.026632330935</v>
       </c>
       <c r="R23" t="n">
-        <v>197.1769422628221</v>
+        <v>194.8279775895052</v>
       </c>
       <c r="S23" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T23" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24299,19 +24299,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H24" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I24" t="n">
-        <v>110.912353612084</v>
+        <v>110.2234929893967</v>
       </c>
       <c r="J24" t="n">
-        <v>90.44761655696213</v>
+        <v>88.55733035654077</v>
       </c>
       <c r="K24" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24326,22 +24326,22 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>76.29822915852546</v>
+        <v>73.74426743079403</v>
       </c>
       <c r="R24" t="n">
-        <v>150.5911173798657</v>
+        <v>149.3488866824438</v>
       </c>
       <c r="S24" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T24" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
@@ -24378,49 +24378,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G25" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H25" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I25" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J25" t="n">
-        <v>126.0979749407038</v>
+        <v>124.9120701257518</v>
       </c>
       <c r="K25" t="n">
-        <v>90.68683368682949</v>
+        <v>88.73802778029913</v>
       </c>
       <c r="L25" t="n">
-        <v>71.8689054022766</v>
+        <v>69.37510479230811</v>
       </c>
       <c r="M25" t="n">
-        <v>70.962311348019</v>
+        <v>68.33294826145382</v>
       </c>
       <c r="N25" t="n">
-        <v>57.66727746803184</v>
+        <v>55.10043475874971</v>
       </c>
       <c r="O25" t="n">
-        <v>83.27303672572057</v>
+        <v>80.90214202816705</v>
       </c>
       <c r="P25" t="n">
-        <v>99.41419886551341</v>
+        <v>97.38548886704081</v>
       </c>
       <c r="Q25" t="n">
-        <v>150.9475465430031</v>
+        <v>149.5429728962854</v>
       </c>
       <c r="R25" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S25" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T25" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U25" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24457,49 +24457,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H26" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I26" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J26" t="n">
-        <v>105.186778144686</v>
+        <v>102.012990463283</v>
       </c>
       <c r="K26" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L26" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M26" t="n">
-        <v>6.707321807773383</v>
+        <v>0.141223971726788</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355852</v>
       </c>
       <c r="P26" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q26" t="n">
-        <v>122.064787408095</v>
+        <v>118.026632330935</v>
       </c>
       <c r="R26" t="n">
-        <v>197.1769422628221</v>
+        <v>194.8279775895052</v>
       </c>
       <c r="S26" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T26" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U26" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24536,19 +24536,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H27" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I27" t="n">
-        <v>110.912353612084</v>
+        <v>110.2234929893967</v>
       </c>
       <c r="J27" t="n">
-        <v>90.44761655696213</v>
+        <v>88.55733035654077</v>
       </c>
       <c r="K27" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24563,22 +24563,22 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>76.29822915852546</v>
+        <v>73.74426743079403</v>
       </c>
       <c r="R27" t="n">
-        <v>150.5911173798657</v>
+        <v>149.3488866824438</v>
       </c>
       <c r="S27" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T27" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U27" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V27" t="n">
         <v>249.2999251801724</v>
@@ -24615,49 +24615,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H28" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I28" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J28" t="n">
-        <v>126.0979749407038</v>
+        <v>124.9120701257518</v>
       </c>
       <c r="K28" t="n">
-        <v>90.68683368682949</v>
+        <v>88.73802778029913</v>
       </c>
       <c r="L28" t="n">
-        <v>71.8689054022766</v>
+        <v>69.37510479230811</v>
       </c>
       <c r="M28" t="n">
-        <v>70.962311348019</v>
+        <v>68.33294826145382</v>
       </c>
       <c r="N28" t="n">
-        <v>57.66727746803184</v>
+        <v>55.10043475874971</v>
       </c>
       <c r="O28" t="n">
-        <v>83.27303672572057</v>
+        <v>80.90214202816705</v>
       </c>
       <c r="P28" t="n">
-        <v>99.41419886551341</v>
+        <v>97.38548886704081</v>
       </c>
       <c r="Q28" t="n">
-        <v>150.9475465430031</v>
+        <v>149.5429728962854</v>
       </c>
       <c r="R28" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S28" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T28" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U28" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V28" t="n">
         <v>237.3615500762718</v>
@@ -24694,49 +24694,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H29" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I29" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J29" t="n">
-        <v>105.186778144686</v>
+        <v>102.012990463283</v>
       </c>
       <c r="K29" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L29" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M29" t="n">
-        <v>6.707321807773383</v>
+        <v>0.141223971726788</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355852</v>
       </c>
       <c r="P29" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q29" t="n">
-        <v>122.064787408095</v>
+        <v>118.026632330935</v>
       </c>
       <c r="R29" t="n">
-        <v>197.1769422628221</v>
+        <v>194.8279775895052</v>
       </c>
       <c r="S29" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T29" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
@@ -24773,19 +24773,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H30" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I30" t="n">
-        <v>110.912353612084</v>
+        <v>110.2234929893967</v>
       </c>
       <c r="J30" t="n">
-        <v>90.44761655696213</v>
+        <v>88.55733035654077</v>
       </c>
       <c r="K30" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24800,22 +24800,22 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>76.29822915852546</v>
+        <v>73.74426743079403</v>
       </c>
       <c r="R30" t="n">
-        <v>150.5911173798657</v>
+        <v>149.3488866824438</v>
       </c>
       <c r="S30" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T30" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V30" t="n">
         <v>249.2999251801724</v>
@@ -24852,49 +24852,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H31" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I31" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J31" t="n">
-        <v>126.0979749407038</v>
+        <v>124.9120701257518</v>
       </c>
       <c r="K31" t="n">
-        <v>90.68683368682949</v>
+        <v>88.73802778029913</v>
       </c>
       <c r="L31" t="n">
-        <v>71.8689054022766</v>
+        <v>69.37510479230811</v>
       </c>
       <c r="M31" t="n">
-        <v>70.962311348019</v>
+        <v>68.33294826145382</v>
       </c>
       <c r="N31" t="n">
-        <v>57.66727746803184</v>
+        <v>55.10043475874971</v>
       </c>
       <c r="O31" t="n">
-        <v>83.27303672572057</v>
+        <v>80.90214202816705</v>
       </c>
       <c r="P31" t="n">
-        <v>99.41419886551341</v>
+        <v>97.38548886704081</v>
       </c>
       <c r="Q31" t="n">
-        <v>150.9475465430031</v>
+        <v>149.5429728962854</v>
       </c>
       <c r="R31" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S31" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T31" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U31" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V31" t="n">
         <v>237.3615500762718</v>
@@ -24931,49 +24931,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H32" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I32" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J32" t="n">
-        <v>105.186778144686</v>
+        <v>102.012990463283</v>
       </c>
       <c r="K32" t="n">
-        <v>82.69308435253603</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L32" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M32" t="n">
-        <v>6.707321807773383</v>
+        <v>0.141223971726788</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355852</v>
       </c>
       <c r="P32" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q32" t="n">
-        <v>122.064787408095</v>
+        <v>118.026632330935</v>
       </c>
       <c r="R32" t="n">
-        <v>197.1769422628221</v>
+        <v>194.8279775895052</v>
       </c>
       <c r="S32" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T32" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -25010,19 +25010,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H33" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I33" t="n">
-        <v>110.912353612084</v>
+        <v>110.2234929893967</v>
       </c>
       <c r="J33" t="n">
-        <v>90.44761655696213</v>
+        <v>88.55733035654077</v>
       </c>
       <c r="K33" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25037,22 +25037,22 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>76.29822915852546</v>
+        <v>73.74426743079403</v>
       </c>
       <c r="R33" t="n">
-        <v>150.5911173798657</v>
+        <v>149.3488866824438</v>
       </c>
       <c r="S33" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T33" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25089,49 +25089,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H34" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I34" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J34" t="n">
-        <v>126.0979749407038</v>
+        <v>124.9120701257518</v>
       </c>
       <c r="K34" t="n">
-        <v>90.6868336868295</v>
+        <v>88.73802778029913</v>
       </c>
       <c r="L34" t="n">
-        <v>71.86890540227661</v>
+        <v>69.37510479230811</v>
       </c>
       <c r="M34" t="n">
-        <v>70.962311348019</v>
+        <v>68.33294826145382</v>
       </c>
       <c r="N34" t="n">
-        <v>57.66727746803184</v>
+        <v>55.10043475874971</v>
       </c>
       <c r="O34" t="n">
-        <v>83.27303672572057</v>
+        <v>80.90214202816705</v>
       </c>
       <c r="P34" t="n">
-        <v>99.41419886551341</v>
+        <v>97.38548886704081</v>
       </c>
       <c r="Q34" t="n">
-        <v>150.9475465430031</v>
+        <v>149.5429728962854</v>
       </c>
       <c r="R34" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S34" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T34" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U34" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V34" t="n">
         <v>237.3615500762718</v>
@@ -25168,49 +25168,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H35" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I35" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J35" t="n">
-        <v>105.186778144686</v>
+        <v>102.012990463283</v>
       </c>
       <c r="K35" t="n">
-        <v>82.69308435253603</v>
+        <v>77.93639933769612</v>
       </c>
       <c r="L35" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521357</v>
       </c>
       <c r="M35" t="n">
-        <v>6.707321807773383</v>
+        <v>0.1412239717268449</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355858</v>
       </c>
       <c r="P35" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079667</v>
       </c>
       <c r="Q35" t="n">
-        <v>122.064787408095</v>
+        <v>118.0266323309351</v>
       </c>
       <c r="R35" t="n">
-        <v>197.1769422628221</v>
+        <v>194.8279775895052</v>
       </c>
       <c r="S35" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T35" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U35" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25247,19 +25247,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H36" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I36" t="n">
-        <v>110.912353612084</v>
+        <v>110.2234929893967</v>
       </c>
       <c r="J36" t="n">
-        <v>90.44761655696213</v>
+        <v>88.55733035654079</v>
       </c>
       <c r="K36" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246745</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25274,22 +25274,22 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>76.29822915852546</v>
+        <v>73.74426743079405</v>
       </c>
       <c r="R36" t="n">
-        <v>150.5911173798657</v>
+        <v>149.3488866824438</v>
       </c>
       <c r="S36" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T36" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
@@ -25326,49 +25326,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G37" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H37" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I37" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J37" t="n">
-        <v>126.0979749407038</v>
+        <v>124.9120701257518</v>
       </c>
       <c r="K37" t="n">
-        <v>90.6868336868295</v>
+        <v>88.73802778029915</v>
       </c>
       <c r="L37" t="n">
-        <v>71.86890540227661</v>
+        <v>69.37510479230811</v>
       </c>
       <c r="M37" t="n">
-        <v>70.962311348019</v>
+        <v>68.33294826145385</v>
       </c>
       <c r="N37" t="n">
-        <v>57.66727746803184</v>
+        <v>55.10043475874974</v>
       </c>
       <c r="O37" t="n">
-        <v>83.27303672572057</v>
+        <v>80.90214202816706</v>
       </c>
       <c r="P37" t="n">
-        <v>99.41419886551341</v>
+        <v>97.38548886704082</v>
       </c>
       <c r="Q37" t="n">
-        <v>150.9475465430031</v>
+        <v>149.5429728962854</v>
       </c>
       <c r="R37" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S37" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T37" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575616</v>
       </c>
       <c r="U37" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V37" t="n">
         <v>237.3615500762718</v>
@@ -25405,49 +25405,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H38" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I38" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J38" t="n">
-        <v>105.186778144686</v>
+        <v>102.012990463283</v>
       </c>
       <c r="K38" t="n">
-        <v>82.69308435253603</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L38" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M38" t="n">
-        <v>6.707321807773383</v>
+        <v>0.141223971726788</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355852</v>
       </c>
       <c r="P38" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q38" t="n">
-        <v>122.064787408095</v>
+        <v>118.026632330935</v>
       </c>
       <c r="R38" t="n">
-        <v>197.1769422628221</v>
+        <v>194.8279775895052</v>
       </c>
       <c r="S38" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T38" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25484,19 +25484,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H39" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I39" t="n">
-        <v>110.912353612084</v>
+        <v>110.2234929893967</v>
       </c>
       <c r="J39" t="n">
-        <v>90.44761655696213</v>
+        <v>88.55733035654077</v>
       </c>
       <c r="K39" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25511,22 +25511,22 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>76.29822915852546</v>
+        <v>73.74426743079403</v>
       </c>
       <c r="R39" t="n">
-        <v>150.5911173798657</v>
+        <v>149.3488866824438</v>
       </c>
       <c r="S39" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T39" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
@@ -25563,49 +25563,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G40" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H40" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I40" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J40" t="n">
-        <v>126.0979749407038</v>
+        <v>124.9120701257518</v>
       </c>
       <c r="K40" t="n">
-        <v>90.6868336868295</v>
+        <v>88.73802778029913</v>
       </c>
       <c r="L40" t="n">
-        <v>71.86890540227661</v>
+        <v>69.37510479230811</v>
       </c>
       <c r="M40" t="n">
-        <v>70.962311348019</v>
+        <v>68.33294826145382</v>
       </c>
       <c r="N40" t="n">
-        <v>57.66727746803184</v>
+        <v>55.10043475874971</v>
       </c>
       <c r="O40" t="n">
-        <v>83.27303672572057</v>
+        <v>80.90214202816705</v>
       </c>
       <c r="P40" t="n">
-        <v>99.41419886551341</v>
+        <v>97.38548886704081</v>
       </c>
       <c r="Q40" t="n">
-        <v>150.9475465430031</v>
+        <v>149.5429728962854</v>
       </c>
       <c r="R40" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S40" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T40" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U40" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V40" t="n">
         <v>237.3615500762718</v>
@@ -25642,49 +25642,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H41" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I41" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J41" t="n">
-        <v>105.186778144686</v>
+        <v>102.012990463283</v>
       </c>
       <c r="K41" t="n">
-        <v>82.69308435253603</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L41" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M41" t="n">
-        <v>6.707321807773383</v>
+        <v>0.141223971726788</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355852</v>
       </c>
       <c r="P41" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q41" t="n">
-        <v>122.064787408095</v>
+        <v>118.026632330935</v>
       </c>
       <c r="R41" t="n">
-        <v>197.1769422628221</v>
+        <v>194.8279775895052</v>
       </c>
       <c r="S41" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T41" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25721,19 +25721,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H42" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I42" t="n">
-        <v>110.912353612084</v>
+        <v>110.2234929893967</v>
       </c>
       <c r="J42" t="n">
-        <v>90.44761655696213</v>
+        <v>88.55733035654077</v>
       </c>
       <c r="K42" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25748,22 +25748,22 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>76.29822915852546</v>
+        <v>73.74426743079403</v>
       </c>
       <c r="R42" t="n">
-        <v>150.5911173798657</v>
+        <v>149.3488866824438</v>
       </c>
       <c r="S42" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T42" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U42" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
@@ -25800,49 +25800,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H43" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I43" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J43" t="n">
-        <v>126.0979749407038</v>
+        <v>124.9120701257518</v>
       </c>
       <c r="K43" t="n">
-        <v>90.6868336868295</v>
+        <v>88.73802778029913</v>
       </c>
       <c r="L43" t="n">
-        <v>71.86890540227661</v>
+        <v>69.37510479230811</v>
       </c>
       <c r="M43" t="n">
-        <v>70.962311348019</v>
+        <v>68.33294826145382</v>
       </c>
       <c r="N43" t="n">
-        <v>57.66727746803184</v>
+        <v>55.10043475874971</v>
       </c>
       <c r="O43" t="n">
-        <v>83.27303672572057</v>
+        <v>80.90214202816705</v>
       </c>
       <c r="P43" t="n">
-        <v>99.41419886551341</v>
+        <v>97.38548886704081</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9475465430031</v>
+        <v>149.5429728962854</v>
       </c>
       <c r="R43" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S43" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T43" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U43" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V43" t="n">
         <v>237.3615500762718</v>
@@ -25879,49 +25879,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H44" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I44" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J44" t="n">
-        <v>105.186778144686</v>
+        <v>102.012990463283</v>
       </c>
       <c r="K44" t="n">
-        <v>82.69308435253603</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L44" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M44" t="n">
-        <v>6.707321807773383</v>
+        <v>0.141223971726788</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355852</v>
       </c>
       <c r="P44" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q44" t="n">
-        <v>122.064787408095</v>
+        <v>118.026632330935</v>
       </c>
       <c r="R44" t="n">
-        <v>197.1769422628221</v>
+        <v>194.8279775895052</v>
       </c>
       <c r="S44" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T44" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
@@ -25958,19 +25958,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H45" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I45" t="n">
-        <v>110.912353612084</v>
+        <v>110.2234929893967</v>
       </c>
       <c r="J45" t="n">
-        <v>90.44761655696213</v>
+        <v>88.55733035654077</v>
       </c>
       <c r="K45" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25985,22 +25985,22 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>76.29822915852546</v>
+        <v>73.74426743079403</v>
       </c>
       <c r="R45" t="n">
-        <v>150.5911173798657</v>
+        <v>149.3488866824438</v>
       </c>
       <c r="S45" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T45" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U45" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
@@ -26037,49 +26037,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G46" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H46" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I46" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J46" t="n">
-        <v>126.0979749407038</v>
+        <v>124.9120701257518</v>
       </c>
       <c r="K46" t="n">
-        <v>90.6868336868295</v>
+        <v>88.73802778029913</v>
       </c>
       <c r="L46" t="n">
-        <v>71.86890540227661</v>
+        <v>69.37510479230811</v>
       </c>
       <c r="M46" t="n">
-        <v>70.962311348019</v>
+        <v>68.33294826145382</v>
       </c>
       <c r="N46" t="n">
-        <v>57.66727746803184</v>
+        <v>55.10043475874971</v>
       </c>
       <c r="O46" t="n">
-        <v>83.27303672572057</v>
+        <v>80.90214202816705</v>
       </c>
       <c r="P46" t="n">
-        <v>99.41419886551341</v>
+        <v>97.38548886704081</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.9475465430031</v>
+        <v>149.5429728962854</v>
       </c>
       <c r="R46" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S46" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T46" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U46" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V46" t="n">
         <v>237.3615500762718</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>425260.6833210184</v>
+        <v>431864.7628529015</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>425260.6833210184</v>
+        <v>431864.7628529016</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>425260.6833210184</v>
+        <v>431864.7628529016</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>425260.6833210184</v>
+        <v>431864.7628529016</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>425260.6833210184</v>
+        <v>431864.7628529016</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>425260.6833210184</v>
+        <v>431864.7628529016</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>425260.6833210184</v>
+        <v>431864.7628529016</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>425260.6833210184</v>
+        <v>431864.7628529016</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>425260.6833210184</v>
+        <v>431864.7628529015</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>425260.6833210184</v>
+        <v>431864.7628529016</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>425260.6833210184</v>
+        <v>431864.7628529016</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>425260.6833210184</v>
+        <v>431864.7628529016</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>62743.37950637972</v>
+        <v>63717.75189632972</v>
       </c>
       <c r="F2" t="n">
-        <v>62743.37950637972</v>
+        <v>63717.75189632973</v>
       </c>
       <c r="G2" t="n">
-        <v>62743.37950637972</v>
+        <v>63717.75189632973</v>
       </c>
       <c r="H2" t="n">
-        <v>62743.37950637972</v>
+        <v>63717.75189632973</v>
       </c>
       <c r="I2" t="n">
-        <v>62743.37950637972</v>
+        <v>63717.75189632973</v>
       </c>
       <c r="J2" t="n">
-        <v>62743.37950637972</v>
+        <v>63717.75189632973</v>
       </c>
       <c r="K2" t="n">
-        <v>62743.37950637972</v>
+        <v>63717.75189632973</v>
       </c>
       <c r="L2" t="n">
-        <v>62743.37950637972</v>
+        <v>63717.75189632973</v>
       </c>
       <c r="M2" t="n">
-        <v>62743.37950637972</v>
+        <v>63717.75189632971</v>
       </c>
       <c r="N2" t="n">
-        <v>62743.37950637972</v>
+        <v>63717.75189632973</v>
       </c>
       <c r="O2" t="n">
-        <v>62743.37950637972</v>
+        <v>63717.75189632972</v>
       </c>
       <c r="P2" t="n">
-        <v>62743.37950637972</v>
+        <v>63717.75189632972</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>375782.5398672876</v>
+        <v>383255.6437182404</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="F5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="G5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="H5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="I5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="J5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="K5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="L5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="M5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="N5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="O5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="P5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-57447.73632443001</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-57447.73632443001</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-57447.73632443001</v>
       </c>
       <c r="E6" t="n">
-        <v>-323235.8603596717</v>
+        <v>-346677.7574410134</v>
       </c>
       <c r="F6" t="n">
-        <v>52546.67950761587</v>
+        <v>36577.88627722696</v>
       </c>
       <c r="G6" t="n">
-        <v>52546.67950761587</v>
+        <v>36577.88627722696</v>
       </c>
       <c r="H6" t="n">
-        <v>52546.67950761587</v>
+        <v>36577.88627722696</v>
       </c>
       <c r="I6" t="n">
-        <v>52546.67950761587</v>
+        <v>36577.88627722696</v>
       </c>
       <c r="J6" t="n">
-        <v>52546.67950761587</v>
+        <v>36577.88627722696</v>
       </c>
       <c r="K6" t="n">
-        <v>52546.67950761587</v>
+        <v>36577.88627722696</v>
       </c>
       <c r="L6" t="n">
-        <v>52546.67950761587</v>
+        <v>36577.88627722696</v>
       </c>
       <c r="M6" t="n">
-        <v>52546.67950761587</v>
+        <v>36577.88627722695</v>
       </c>
       <c r="N6" t="n">
-        <v>52546.67950761587</v>
+        <v>36577.88627722696</v>
       </c>
       <c r="O6" t="n">
-        <v>52546.67950761587</v>
+        <v>36577.88627722695</v>
       </c>
       <c r="P6" t="n">
-        <v>52546.67950761587</v>
+        <v>36577.88627722695</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="F3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="G3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="H3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="I3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="J3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="K3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="L3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="M3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="N3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="O3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="P3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H11" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I11" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093318</v>
       </c>
       <c r="J11" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K11" t="n">
-        <v>239.188322800748</v>
+        <v>243.9450078155879</v>
       </c>
       <c r="L11" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M11" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231595</v>
       </c>
       <c r="N11" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O11" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406583</v>
       </c>
       <c r="P11" t="n">
-        <v>270.397529979667</v>
+        <v>275.774865561285</v>
       </c>
       <c r="Q11" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104473</v>
       </c>
       <c r="R11" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S11" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660631</v>
       </c>
       <c r="T11" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322284</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H12" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I12" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060327</v>
       </c>
       <c r="J12" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345925</v>
       </c>
       <c r="K12" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L12" t="n">
         <v>202.635780428066</v>
@@ -31858,22 +31858,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P12" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700124</v>
       </c>
       <c r="R12" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S12" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T12" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324126</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125176</v>
       </c>
       <c r="H13" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I13" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J13" t="n">
-        <v>59.632828914413</v>
+        <v>60.81873372936499</v>
       </c>
       <c r="K13" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410884</v>
       </c>
       <c r="L13" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M13" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619185</v>
       </c>
       <c r="N13" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O13" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P13" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548375</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R13" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451191</v>
       </c>
       <c r="S13" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411632</v>
       </c>
       <c r="T13" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035301</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704647</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H14" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I14" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J14" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K14" t="n">
-        <v>239.188322800748</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L14" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M14" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N14" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O14" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P14" t="n">
-        <v>270.397529979667</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q14" t="n">
-        <v>203.0572840332873</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R14" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S14" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T14" t="n">
-        <v>8.23125798618574</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H15" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I15" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J15" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K15" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L15" t="n">
         <v>202.635780428066</v>
@@ -32095,22 +32095,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P15" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R15" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S15" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T15" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06618941491321521</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H16" t="n">
-        <v>7.499152202429724</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I16" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J16" t="n">
-        <v>59.632828914413</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K16" t="n">
-        <v>97.99505638757849</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L16" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M16" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N16" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O16" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P16" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R16" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S16" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T16" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H17" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I17" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J17" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K17" t="n">
-        <v>239.188322800748</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L17" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M17" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N17" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O17" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P17" t="n">
-        <v>270.397529979667</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q17" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R17" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S17" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T17" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H18" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I18" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J18" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K18" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L18" t="n">
         <v>202.635780428066</v>
@@ -32332,22 +32332,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P18" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R18" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S18" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T18" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H19" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I19" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J19" t="n">
-        <v>59.632828914413</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K19" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L19" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M19" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N19" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O19" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P19" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R19" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S19" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T19" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H20" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I20" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J20" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K20" t="n">
-        <v>239.188322800748</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L20" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M20" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N20" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O20" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P20" t="n">
-        <v>270.397529979667</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q20" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R20" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S20" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T20" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H21" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I21" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J21" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K21" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L21" t="n">
         <v>202.635780428066</v>
@@ -32569,22 +32569,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P21" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R21" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S21" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T21" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H22" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I22" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J22" t="n">
-        <v>59.632828914413</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K22" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L22" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M22" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N22" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O22" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P22" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R22" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S22" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T22" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H23" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I23" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J23" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K23" t="n">
-        <v>239.188322800748</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L23" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M23" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N23" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O23" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P23" t="n">
-        <v>270.397529979667</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q23" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R23" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S23" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T23" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H24" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I24" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J24" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K24" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L24" t="n">
         <v>202.635780428066</v>
@@ -32806,22 +32806,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P24" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R24" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S24" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T24" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H25" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I25" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J25" t="n">
-        <v>59.632828914413</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K25" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L25" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M25" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N25" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O25" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P25" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R25" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S25" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T25" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H26" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I26" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J26" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K26" t="n">
-        <v>239.188322800748</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L26" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M26" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N26" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O26" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P26" t="n">
-        <v>270.397529979667</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q26" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R26" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S26" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T26" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H27" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I27" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J27" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K27" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L27" t="n">
         <v>202.635780428066</v>
@@ -33043,22 +33043,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P27" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R27" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S27" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T27" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H28" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I28" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J28" t="n">
-        <v>59.632828914413</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K28" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L28" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M28" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N28" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O28" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P28" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R28" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S28" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T28" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H29" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I29" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J29" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K29" t="n">
-        <v>239.188322800748</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L29" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M29" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N29" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O29" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P29" t="n">
-        <v>270.397529979667</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q29" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R29" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S29" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T29" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H30" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I30" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J30" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K30" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L30" t="n">
         <v>202.635780428066</v>
@@ -33280,22 +33280,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P30" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R30" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S30" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T30" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H31" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I31" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J31" t="n">
-        <v>59.632828914413</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K31" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L31" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M31" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N31" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O31" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P31" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R31" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S31" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T31" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H32" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I32" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J32" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K32" t="n">
-        <v>239.188322800748</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L32" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M32" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N32" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O32" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P32" t="n">
-        <v>270.397529979667</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q32" t="n">
-        <v>203.0572840332873</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R32" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S32" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T32" t="n">
-        <v>8.23125798618574</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H33" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I33" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J33" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K33" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L33" t="n">
         <v>202.635780428066</v>
@@ -33517,22 +33517,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P33" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R33" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S33" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T33" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06618941491321521</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H34" t="n">
-        <v>7.499152202429724</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I34" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J34" t="n">
-        <v>59.632828914413</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K34" t="n">
-        <v>97.99505638757849</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L34" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M34" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N34" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O34" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P34" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R34" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S34" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T34" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H35" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I35" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093318</v>
       </c>
       <c r="J35" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K35" t="n">
-        <v>239.188322800748</v>
+        <v>243.9450078155879</v>
       </c>
       <c r="L35" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M35" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231595</v>
       </c>
       <c r="N35" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O35" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406583</v>
       </c>
       <c r="P35" t="n">
-        <v>270.397529979667</v>
+        <v>275.774865561285</v>
       </c>
       <c r="Q35" t="n">
-        <v>203.0572840332873</v>
+        <v>207.0954391104473</v>
       </c>
       <c r="R35" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S35" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660631</v>
       </c>
       <c r="T35" t="n">
-        <v>8.23125798618574</v>
+        <v>8.394951184322284</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H36" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I36" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060327</v>
       </c>
       <c r="J36" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345925</v>
       </c>
       <c r="K36" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L36" t="n">
         <v>202.635780428066</v>
@@ -33754,22 +33754,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P36" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700124</v>
       </c>
       <c r="R36" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S36" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T36" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324126</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06618941491321521</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125176</v>
       </c>
       <c r="H37" t="n">
-        <v>7.499152202429724</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I37" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J37" t="n">
-        <v>59.632828914413</v>
+        <v>60.81873372936499</v>
       </c>
       <c r="K37" t="n">
-        <v>97.99505638757849</v>
+        <v>99.94386229410884</v>
       </c>
       <c r="L37" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M37" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619185</v>
       </c>
       <c r="N37" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O37" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P37" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548375</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R37" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451191</v>
       </c>
       <c r="S37" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411632</v>
       </c>
       <c r="T37" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035301</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704647</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H38" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I38" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J38" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K38" t="n">
-        <v>239.188322800748</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L38" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M38" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N38" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O38" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P38" t="n">
-        <v>270.397529979667</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q38" t="n">
-        <v>203.0572840332873</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R38" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S38" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T38" t="n">
-        <v>8.23125798618574</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H39" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I39" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J39" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K39" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L39" t="n">
         <v>202.635780428066</v>
@@ -33991,22 +33991,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P39" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R39" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S39" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T39" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06618941491321521</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H40" t="n">
-        <v>7.499152202429724</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I40" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J40" t="n">
-        <v>59.632828914413</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K40" t="n">
-        <v>97.99505638757849</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L40" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M40" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N40" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O40" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P40" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R40" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S40" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T40" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H41" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I41" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J41" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K41" t="n">
-        <v>239.188322800748</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L41" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M41" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N41" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O41" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P41" t="n">
-        <v>270.397529979667</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q41" t="n">
-        <v>203.0572840332873</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R41" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S41" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T41" t="n">
-        <v>8.23125798618574</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H42" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I42" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J42" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K42" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L42" t="n">
         <v>202.635780428066</v>
@@ -34228,22 +34228,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P42" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R42" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S42" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T42" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06618941491321521</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H43" t="n">
-        <v>7.499152202429724</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I43" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J43" t="n">
-        <v>59.632828914413</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K43" t="n">
-        <v>97.99505638757849</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L43" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M43" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N43" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O43" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P43" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R43" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S43" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T43" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H44" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I44" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J44" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K44" t="n">
-        <v>239.188322800748</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L44" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M44" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N44" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O44" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P44" t="n">
-        <v>270.397529979667</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q44" t="n">
-        <v>203.0572840332873</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R44" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S44" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T44" t="n">
-        <v>8.23125798618574</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H45" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I45" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J45" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K45" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L45" t="n">
         <v>202.635780428066</v>
@@ -34465,22 +34465,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P45" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R45" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S45" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T45" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06618941491321521</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H46" t="n">
-        <v>7.499152202429724</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I46" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J46" t="n">
-        <v>59.632828914413</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K46" t="n">
-        <v>97.99505638757849</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L46" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M46" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N46" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O46" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P46" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R46" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S46" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T46" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
